--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\MA-Smartventil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\MSE\MA-Smartventil\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DAB105-81D6-4D2F-9BC9-06DD5CE12614}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t>Tag</t>
   </si>
@@ -73,17 +74,32 @@
   <si>
     <t>Präsentation</t>
   </si>
+  <si>
+    <t>Ferien Ende</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Herbstferien Anfang</t>
+  </si>
+  <si>
+    <t>Meeting VAT, Recherche,  Zeitplan, Mindmap</t>
+  </si>
+  <si>
+    <t>Protokolle im Vergleich</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="hh/mm&quot; h&quot;;@"/>
     <numFmt numFmtId="166" formatCode="h/mm&quot; Uhr&quot;;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +122,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -220,13 +250,363 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -847,27 +1227,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="H303" sqref="H303"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="11" style="1"/>
-    <col min="11" max="11" width="80.140625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="80.1328125" style="15" customWidth="1"/>
     <col min="12" max="13" width="11" style="15"/>
-    <col min="14" max="14" width="12.5703125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="15" customWidth="1"/>
     <col min="15" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -899,17 +1279,17 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="19"/>
+      <c r="D2" s="24"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="2">
         <v>0</v>
@@ -933,10 +1313,10 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
-        <f>B3+G4-H4</f>
+        <f>B3+G3</f>
         <v>0</v>
       </c>
       <c r="C4" s="2"/>
@@ -958,11 +1338,11 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B7" si="2">B4+G5-H5</f>
-        <v>1</v>
+        <f t="shared" ref="B5:B68" si="2">B4+G4</f>
+        <v>0</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="19">
@@ -987,7 +1367,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="2">
         <f t="shared" si="2"/>
@@ -1016,7 +1396,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="2">
         <f t="shared" si="2"/>
@@ -1045,9 +1425,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="19">
         <v>43365</v>
@@ -1061,9 +1444,12 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="22">
         <v>43366</v>
@@ -1080,10 +1466,10 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="2">
-        <f>B7+G10-H10</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
@@ -1105,10 +1491,10 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="2">
-        <f>B10+G11-H11</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C11" s="2"/>
@@ -1130,10 +1516,10 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="2">
-        <f t="shared" ref="B12:B14" si="3">B11+G12-H12</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C12" s="2"/>
@@ -1155,10 +1541,10 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C13" s="2"/>
@@ -1175,7 +1561,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="14">
         <v>8</v>
       </c>
       <c r="I13" s="5">
@@ -1189,11 +1575,11 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="19">
@@ -1209,7 +1595,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="14">
         <v>8</v>
       </c>
       <c r="I14" s="5">
@@ -1223,9 +1609,12 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="19">
         <v>43372</v>
@@ -1239,9 +1628,12 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="22">
         <v>43373</v>
@@ -1259,10 +1651,10 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B17" s="2">
-        <f>B14-H17</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="D17" s="19">
         <v>43374</v>
@@ -1282,11 +1674,11 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="2">
-        <f t="shared" ref="B18:B37" si="4">B17-H18</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="19">
@@ -1308,11 +1700,11 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="19">
@@ -1334,67 +1726,79 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="2">
-        <f t="shared" si="4"/>
-        <v>-7</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="19">
         <v>43377</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="5">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4</v>
+      </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H20" s="14">
         <v>8</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-      <c r="K20" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="2">
-        <f t="shared" si="4"/>
-        <v>-15</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="19">
         <v>43378</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="5">
+        <v>4</v>
+      </c>
+      <c r="F21" s="5">
+        <v>4</v>
+      </c>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H21" s="14">
         <v>8</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-      <c r="K21" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="2">
-        <f t="shared" si="4"/>
-        <v>-15</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="19">
@@ -1409,11 +1813,11 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
-      <c r="B23" s="12">
-        <f t="shared" si="4"/>
-        <v>-15</v>
+      <c r="B23" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="22">
@@ -1425,18 +1829,18 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8">
         <f>SUM(I17:I21)</f>
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="2">
-        <f t="shared" si="4"/>
-        <v>-15</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="19">
@@ -1457,11 +1861,11 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="2">
-        <f t="shared" si="4"/>
-        <v>-15</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="19">
@@ -1482,11 +1886,11 @@
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="2">
-        <f t="shared" si="4"/>
-        <v>-15</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="19">
@@ -1507,11 +1911,11 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
-        <f t="shared" si="4"/>
-        <v>-23</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="19">
@@ -1530,16 +1934,18 @@
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="K27" s="6"/>
+      <c r="K27" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="2">
-        <f t="shared" si="4"/>
-        <v>-31</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="19">
@@ -1563,11 +1969,11 @@
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="2">
-        <f t="shared" si="4"/>
-        <v>-31</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="19">
@@ -1582,11 +1988,11 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
-      <c r="B30" s="12">
-        <f t="shared" si="4"/>
-        <v>-31</v>
+      <c r="B30" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="22">
@@ -1605,11 +2011,11 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
-        <f t="shared" si="4"/>
-        <v>-31</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="19">
@@ -1630,10 +2036,10 @@
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B32" s="2">
-        <f t="shared" si="4"/>
-        <v>-31</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="19">
@@ -1653,11 +2059,11 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>
       <c r="B33" s="2">
-        <f t="shared" si="4"/>
-        <v>-31</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="19">
@@ -1678,11 +2084,11 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="4"/>
       <c r="B34" s="2">
-        <f t="shared" si="4"/>
-        <v>-39</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="19">
@@ -1706,11 +2112,11 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
-        <f t="shared" si="4"/>
-        <v>-47</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="19">
@@ -1734,11 +2140,11 @@
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
-        <f t="shared" si="4"/>
-        <v>-47</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="19">
@@ -1753,11 +2159,11 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
-      <c r="B37" s="12">
-        <f t="shared" si="4"/>
-        <v>-47</v>
+      <c r="B37" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="22">
@@ -1776,11 +2182,11 @@
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="4"/>
       <c r="B38" s="2">
-        <f>B37+G38-H38</f>
-        <v>-47</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="19">
@@ -1801,11 +2207,11 @@
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="4"/>
       <c r="B39" s="2">
-        <f t="shared" ref="B39:B102" si="5">B38+G39-H39</f>
-        <v>-47</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="19">
@@ -1826,11 +2232,11 @@
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="4"/>
       <c r="B40" s="2">
-        <f t="shared" si="5"/>
-        <v>-47</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="19">
@@ -1851,11 +2257,11 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" s="4"/>
       <c r="B41" s="2">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="19">
@@ -1879,14 +2285,14 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="13"/>
       <c r="B42" s="2">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="20">
+      <c r="D42" s="25">
         <v>43399</v>
       </c>
       <c r="E42" s="5"/>
@@ -1899,16 +2305,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K42" s="11"/>
+      <c r="K42" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="4"/>
       <c r="B43" s="2">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="20">
@@ -1918,16 +2326,18 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="K43" s="6"/>
+      <c r="K43" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="7"/>
-      <c r="B44" s="12">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+      <c r="B44" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="23">
@@ -1941,16 +2351,18 @@
         <f>SUM(I38:I42)</f>
         <v>-8</v>
       </c>
-      <c r="K44" s="10"/>
+      <c r="K44" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" s="4"/>
       <c r="B45" s="2">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="20">
@@ -1966,16 +2378,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K45" s="6"/>
+      <c r="K45" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="4"/>
       <c r="B46" s="2">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="20">
@@ -1991,16 +2405,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K46" s="6"/>
+      <c r="K46" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="4"/>
       <c r="B47" s="2">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="20">
@@ -2016,16 +2432,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K47" s="6"/>
+      <c r="K47" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="4"/>
       <c r="B48" s="2">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="20">
@@ -2041,15 +2459,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K48" s="6"/>
+      <c r="K48" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B49" s="2">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="20">
@@ -2065,16 +2485,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K49" s="6"/>
+      <c r="K49" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="4"/>
       <c r="B50" s="2">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="20">
@@ -2084,16 +2506,18 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="K50" s="6"/>
+      <c r="K50" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="7"/>
-      <c r="B51" s="12">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+      <c r="B51" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="23">
@@ -2107,16 +2531,18 @@
         <f>SUM(I45:I49)</f>
         <v>0</v>
       </c>
-      <c r="K51" s="10"/>
+      <c r="K51" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" s="4"/>
       <c r="B52" s="2">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="19">
@@ -2137,11 +2563,11 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" s="4"/>
       <c r="B53" s="2">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="19">
@@ -2162,11 +2588,11 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="4"/>
       <c r="B54" s="2">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="19">
@@ -2187,11 +2613,11 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" s="4"/>
       <c r="B55" s="2">
-        <f t="shared" si="5"/>
-        <v>-63</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="19">
@@ -2215,11 +2641,11 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" s="4"/>
       <c r="B56" s="2">
-        <f t="shared" si="5"/>
-        <v>-71</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="19">
@@ -2243,11 +2669,11 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" s="4"/>
       <c r="B57" s="2">
-        <f t="shared" si="5"/>
-        <v>-71</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="19">
@@ -2262,11 +2688,11 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
-      <c r="B58" s="12">
-        <f t="shared" si="5"/>
-        <v>-71</v>
+      <c r="B58" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="22">
@@ -2285,11 +2711,11 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="2">
-        <f t="shared" si="5"/>
-        <v>-71</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="19">
@@ -2310,11 +2736,11 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" s="4"/>
       <c r="B60" s="2">
-        <f t="shared" si="5"/>
-        <v>-71</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="19">
@@ -2335,11 +2761,11 @@
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" s="4"/>
       <c r="B61" s="2">
-        <f t="shared" si="5"/>
-        <v>-71</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="19">
@@ -2360,11 +2786,11 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="4"/>
       <c r="B62" s="2">
-        <f t="shared" si="5"/>
-        <v>-79</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="19">
@@ -2388,11 +2814,11 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="2">
-        <f t="shared" si="5"/>
-        <v>-87</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="19">
@@ -2416,11 +2842,11 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="2">
-        <f t="shared" si="5"/>
-        <v>-87</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="19">
@@ -2435,10 +2861,10 @@
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="12">
-        <f t="shared" si="5"/>
-        <v>-87</v>
+    <row r="65" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="22">
@@ -2457,11 +2883,11 @@
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" s="4"/>
       <c r="B66" s="2">
-        <f t="shared" si="5"/>
-        <v>-87</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="19">
@@ -2482,11 +2908,11 @@
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67" s="4"/>
       <c r="B67" s="2">
-        <f>B66+G67-H67</f>
-        <v>-87</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="19">
@@ -2507,11 +2933,11 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68" s="4"/>
       <c r="B68" s="2">
-        <f t="shared" si="5"/>
-        <v>-87</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="19">
@@ -2520,11 +2946,11 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5">
-        <f t="shared" ref="G68:G91" si="6">F68+E68</f>
+        <f t="shared" ref="G68:G91" si="3">F68+E68</f>
         <v>0</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" ref="I68:I91" si="7">G68-H68</f>
+        <f t="shared" ref="I68:I91" si="4">G68-H68</f>
         <v>0</v>
       </c>
       <c r="K68" s="6"/>
@@ -2532,11 +2958,11 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="4"/>
       <c r="B69" s="2">
-        <f t="shared" si="5"/>
-        <v>-95</v>
+        <f t="shared" ref="B69:B132" si="5">B68+G68</f>
+        <v>33</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="19">
@@ -2545,14 +2971,14 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H69" s="1">
         <v>8</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="K69" s="6"/>
@@ -2560,11 +2986,11 @@
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70" s="4"/>
       <c r="B70" s="2">
         <f t="shared" si="5"/>
-        <v>-103</v>
+        <v>33</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="19">
@@ -2573,14 +2999,14 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H70" s="1">
         <v>8</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="K70" s="6"/>
@@ -2588,11 +3014,11 @@
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71" s="4"/>
       <c r="B71" s="2">
         <f t="shared" si="5"/>
-        <v>-103</v>
+        <v>33</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="19">
@@ -2601,11 +3027,11 @@
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K71" s="6"/>
@@ -2613,11 +3039,11 @@
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="7"/>
-      <c r="B72" s="12">
+      <c r="B72" s="2">
         <f t="shared" si="5"/>
-        <v>-103</v>
+        <v>33</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="22">
@@ -2636,11 +3062,11 @@
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" s="4"/>
       <c r="B73" s="2">
         <f t="shared" si="5"/>
-        <v>-103</v>
+        <v>33</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="19">
@@ -2649,11 +3075,11 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K73" s="6"/>
@@ -2661,11 +3087,11 @@
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74" s="4"/>
       <c r="B74" s="2">
         <f t="shared" si="5"/>
-        <v>-103</v>
+        <v>33</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="19">
@@ -2674,11 +3100,11 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K74" s="6"/>
@@ -2686,11 +3112,11 @@
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" s="4"/>
       <c r="B75" s="2">
         <f t="shared" si="5"/>
-        <v>-103</v>
+        <v>33</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="19">
@@ -2699,11 +3125,11 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K75" s="6"/>
@@ -2711,11 +3137,11 @@
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" s="4"/>
       <c r="B76" s="2">
         <f t="shared" si="5"/>
-        <v>-111</v>
+        <v>33</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="19">
@@ -2724,14 +3150,14 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H76" s="1">
         <v>8</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="K76" s="6"/>
@@ -2739,11 +3165,11 @@
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" s="4"/>
       <c r="B77" s="2">
         <f t="shared" si="5"/>
-        <v>-119</v>
+        <v>33</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="19">
@@ -2752,14 +3178,14 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H77" s="1">
         <v>8</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="K77" s="6"/>
@@ -2767,11 +3193,11 @@
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A78" s="4"/>
       <c r="B78" s="2">
-        <f>B77+G78-H78</f>
-        <v>-119</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="19">
@@ -2786,11 +3212,11 @@
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="7"/>
-      <c r="B79" s="12">
+      <c r="B79" s="2">
         <f t="shared" si="5"/>
-        <v>-119</v>
+        <v>33</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="22">
@@ -2809,11 +3235,11 @@
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="4"/>
       <c r="B80" s="2">
         <f t="shared" si="5"/>
-        <v>-119</v>
+        <v>33</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="19">
@@ -2822,11 +3248,11 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K80" s="6"/>
@@ -2834,11 +3260,11 @@
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="4"/>
       <c r="B81" s="2">
         <f t="shared" si="5"/>
-        <v>-119</v>
+        <v>33</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="19">
@@ -2847,11 +3273,11 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K81" s="6"/>
@@ -2859,11 +3285,11 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" s="4"/>
       <c r="B82" s="2">
         <f t="shared" si="5"/>
-        <v>-119</v>
+        <v>33</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="19">
@@ -2872,11 +3298,11 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I82" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K82" s="6"/>
@@ -2884,11 +3310,11 @@
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83" s="4"/>
       <c r="B83" s="2">
         <f t="shared" si="5"/>
-        <v>-127</v>
+        <v>33</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="19">
@@ -2897,14 +3323,14 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H83" s="1">
         <v>8</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="K83" s="6"/>
@@ -2912,11 +3338,11 @@
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84" s="4"/>
       <c r="B84" s="2">
         <f t="shared" si="5"/>
-        <v>-135</v>
+        <v>33</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="19">
@@ -2925,14 +3351,14 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H84" s="1">
         <v>8</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="K84" s="6"/>
@@ -2940,11 +3366,11 @@
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" s="4"/>
       <c r="B85" s="2">
         <f t="shared" si="5"/>
-        <v>-135</v>
+        <v>33</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="19">
@@ -2959,11 +3385,11 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="7"/>
-      <c r="B86" s="12">
+      <c r="B86" s="2">
         <f t="shared" si="5"/>
-        <v>-135</v>
+        <v>33</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="22">
@@ -2982,11 +3408,11 @@
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="4"/>
       <c r="B87" s="2">
         <f t="shared" si="5"/>
-        <v>-135</v>
+        <v>33</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="19">
@@ -2995,12 +3421,12 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H87" s="14"/>
       <c r="I87" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K87" s="6"/>
@@ -3008,11 +3434,11 @@
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="4"/>
       <c r="B88" s="2">
         <f t="shared" si="5"/>
-        <v>-135</v>
+        <v>33</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="19">
@@ -3021,11 +3447,11 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I88" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K88" s="6"/>
@@ -3033,11 +3459,11 @@
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" s="4"/>
       <c r="B89" s="2">
         <f t="shared" si="5"/>
-        <v>-135</v>
+        <v>33</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="19">
@@ -3046,11 +3472,11 @@
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I89" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K89" s="6"/>
@@ -3058,11 +3484,11 @@
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
       <c r="B90" s="2">
         <f t="shared" si="5"/>
-        <v>-143</v>
+        <v>33</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="19">
@@ -3071,14 +3497,14 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H90" s="1">
         <v>8</v>
       </c>
       <c r="I90" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="K90" s="6"/>
@@ -3086,11 +3512,11 @@
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" s="4"/>
       <c r="B91" s="2">
         <f t="shared" si="5"/>
-        <v>-151</v>
+        <v>33</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="19">
@@ -3099,14 +3525,14 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H91" s="1">
         <v>8</v>
       </c>
       <c r="I91" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="K91" s="6"/>
@@ -3114,11 +3540,11 @@
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92" s="4"/>
       <c r="B92" s="2">
         <f t="shared" si="5"/>
-        <v>-151</v>
+        <v>33</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="19">
@@ -3131,11 +3557,11 @@
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
     </row>
-    <row r="93" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="7"/>
-      <c r="B93" s="12">
+      <c r="B93" s="2">
         <f t="shared" si="5"/>
-        <v>-151</v>
+        <v>33</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="22">
@@ -3152,11 +3578,11 @@
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="2">
         <f t="shared" si="5"/>
-        <v>-151</v>
+        <v>33</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="19">
@@ -3165,12 +3591,12 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5">
-        <f t="shared" ref="G94:G98" si="8">F94+E94</f>
+        <f t="shared" ref="G94:G98" si="6">F94+E94</f>
         <v>0</v>
       </c>
       <c r="H94" s="14"/>
       <c r="I94" s="5">
-        <f t="shared" ref="I94:I98" si="9">G94-H94</f>
+        <f t="shared" ref="I94:I98" si="7">G94-H94</f>
         <v>0</v>
       </c>
       <c r="K94" s="6"/>
@@ -3178,11 +3604,11 @@
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="2">
         <f t="shared" si="5"/>
-        <v>-151</v>
+        <v>33</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="19">
@@ -3191,11 +3617,11 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I95" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K95" s="6"/>
@@ -3203,10 +3629,10 @@
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B96" s="2">
         <f t="shared" si="5"/>
-        <v>-151</v>
+        <v>33</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="19">
@@ -3215,18 +3641,18 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I96" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B97" s="2">
-        <f>B96+G97-H97</f>
-        <v>-159</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="19">
@@ -3235,21 +3661,21 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H97" s="1">
         <v>8</v>
       </c>
       <c r="I97" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B98" s="2">
         <f t="shared" si="5"/>
-        <v>-167</v>
+        <v>33</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="19">
@@ -3258,14 +3684,14 @@
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H98" s="1">
         <v>8</v>
       </c>
       <c r="I98" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-8</v>
       </c>
       <c r="K98" s="16"/>
@@ -3273,10 +3699,10 @@
       <c r="M98" s="16"/>
       <c r="N98" s="16"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B99" s="2">
         <f t="shared" si="5"/>
-        <v>-167</v>
+        <v>33</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="19">
@@ -3285,10 +3711,10 @@
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="12">
+    <row r="100" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B100" s="2">
         <f t="shared" si="5"/>
-        <v>-167</v>
+        <v>33</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="22">
@@ -3305,10 +3731,10 @@
       <c r="M100" s="17"/>
       <c r="N100" s="17"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B101" s="2">
         <f t="shared" si="5"/>
-        <v>-167</v>
+        <v>33</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="20">
@@ -3317,12 +3743,12 @@
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5">
-        <f t="shared" ref="G101:G105" si="10">F101+E101</f>
+        <f t="shared" ref="G101:G105" si="8">F101+E101</f>
         <v>0</v>
       </c>
       <c r="H101" s="14"/>
       <c r="I101" s="5">
-        <f t="shared" ref="I101:I105" si="11">G101-H101</f>
+        <f t="shared" ref="I101:I105" si="9">G101-H101</f>
         <v>0</v>
       </c>
       <c r="K101" s="16" t="s">
@@ -3332,10 +3758,10 @@
       <c r="M101" s="16"/>
       <c r="N101" s="16"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B102" s="2">
         <f t="shared" si="5"/>
-        <v>-167</v>
+        <v>33</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="20">
@@ -3344,22 +3770,24 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I102" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K102" s="16"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
       <c r="N102" s="16"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B103" s="2">
-        <f t="shared" ref="B103:B105" si="12">B102+G103-H103</f>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="20">
@@ -3368,18 +3796,21 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B104" s="2">
-        <f t="shared" si="12"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="20">
@@ -3388,18 +3819,21 @@
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I104" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B105" s="2">
-        <f t="shared" si="12"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="20">
@@ -3408,18 +3842,21 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B106" s="2">
-        <f>B105+G106-H106</f>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="20">
@@ -3427,11 +3864,14 @@
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="12">
-        <f t="shared" ref="B107:B119" si="13">B106+G107-H107</f>
-        <v>-167</v>
+      <c r="K106" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B107" s="2">
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="23">
@@ -3440,18 +3880,20 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="J107" s="8">
-        <f t="shared" ref="J107" si="14">SUM(I101:I105)</f>
-        <v>0</v>
-      </c>
-      <c r="K107" s="17"/>
+        <f t="shared" ref="J107" si="10">SUM(I101:I105)</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="L107" s="17"/>
       <c r="M107" s="17"/>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B108" s="2">
-        <f t="shared" si="13"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="20">
@@ -3460,19 +3902,22 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5">
-        <f t="shared" ref="G108:G112" si="15">F108+E108</f>
+        <f t="shared" ref="G108:G112" si="11">F108+E108</f>
         <v>0</v>
       </c>
       <c r="H108" s="14"/>
       <c r="I108" s="5">
-        <f t="shared" ref="I108:I112" si="16">G108-H108</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I108:I112" si="12">G108-H108</f>
+        <v>0</v>
+      </c>
+      <c r="K108" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B109" s="2">
-        <f t="shared" si="13"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="20">
@@ -3481,22 +3926,24 @@
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I109" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K109" s="16"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="L109" s="16"/>
       <c r="M109" s="16"/>
       <c r="N109" s="16"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B110" s="2">
-        <f t="shared" si="13"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="20">
@@ -3505,22 +3952,24 @@
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I110" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K110" s="16"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K110" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="L110" s="16"/>
       <c r="M110" s="16"/>
       <c r="N110" s="16"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B111" s="2">
-        <f t="shared" si="13"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="20">
@@ -3529,18 +3978,21 @@
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I111" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K111" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B112" s="2">
-        <f t="shared" si="13"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="20">
@@ -3549,22 +4001,24 @@
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I112" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K112" s="16"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K112" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="L112" s="16"/>
       <c r="M112" s="16"/>
       <c r="N112" s="16"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B113" s="2">
-        <f t="shared" si="13"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="20">
@@ -3572,11 +4026,14 @@
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
-    </row>
-    <row r="114" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="12">
-        <f t="shared" si="13"/>
-        <v>-167</v>
+      <c r="K113" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B114" s="2">
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C114" s="12"/>
       <c r="D114" s="23">
@@ -3585,7 +4042,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="J114" s="8">
-        <f t="shared" ref="J114" si="17">SUM(I108:I112)</f>
+        <f t="shared" ref="J114" si="13">SUM(I108:I112)</f>
         <v>0</v>
       </c>
       <c r="K114" s="17" t="s">
@@ -3595,10 +4052,10 @@
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B115" s="2">
-        <f t="shared" si="13"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="20">
@@ -3607,12 +4064,12 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5">
-        <f t="shared" ref="G115:G119" si="18">F115+E115</f>
+        <f t="shared" ref="G115:G119" si="14">F115+E115</f>
         <v>0</v>
       </c>
       <c r="H115" s="14"/>
       <c r="I115" s="5">
-        <f t="shared" ref="I115:I119" si="19">G115-H115</f>
+        <f t="shared" ref="I115:I119" si="15">G115-H115</f>
         <v>0</v>
       </c>
       <c r="K115" s="16" t="s">
@@ -3622,10 +4079,10 @@
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B116" s="2">
-        <f t="shared" si="13"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="20">
@@ -3634,22 +4091,24 @@
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I116" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K116" s="16"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="L116" s="16"/>
       <c r="M116" s="16"/>
       <c r="N116" s="16"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B117" s="2">
-        <f t="shared" si="13"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="20">
@@ -3658,19 +4117,22 @@
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I117" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K117" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A118" s="5"/>
       <c r="B118" s="2">
-        <f t="shared" si="13"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="20">
@@ -3679,18 +4141,21 @@
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I118" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K118" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B119" s="2">
-        <f t="shared" si="13"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="20">
@@ -3699,11 +4164,11 @@
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I119" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K119" s="16" t="s">
@@ -3713,11 +4178,11 @@
       <c r="M119" s="16"/>
       <c r="N119" s="16"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A120" s="4"/>
       <c r="B120" s="2">
-        <f>B119+G120-H120</f>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="20">
@@ -3726,11 +4191,11 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="7"/>
-      <c r="B121" s="12">
-        <f t="shared" ref="B121:B140" si="20">B120+G121-H121</f>
-        <v>-167</v>
+      <c r="B121" s="2">
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C121" s="12"/>
       <c r="D121" s="23">
@@ -3739,7 +4204,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="J121" s="8">
-        <f t="shared" ref="J121" si="21">SUM(I115:I119)</f>
+        <f t="shared" ref="J121" si="16">SUM(I115:I119)</f>
         <v>0</v>
       </c>
       <c r="K121" s="17"/>
@@ -3747,11 +4212,11 @@
       <c r="M121" s="17"/>
       <c r="N121" s="17"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A122" s="2"/>
       <c r="B122" s="2">
-        <f t="shared" si="20"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="19">
@@ -3760,12 +4225,12 @@
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5">
-        <f t="shared" ref="G122:G126" si="22">F122+E122</f>
+        <f t="shared" ref="G122:G126" si="17">F122+E122</f>
         <v>0</v>
       </c>
       <c r="H122" s="14"/>
       <c r="I122" s="5">
-        <f t="shared" ref="I122:I126" si="23">G122-H122</f>
+        <f t="shared" ref="I122:I126" si="18">G122-H122</f>
         <v>0</v>
       </c>
       <c r="K122" s="16"/>
@@ -3773,11 +4238,11 @@
       <c r="M122" s="16"/>
       <c r="N122" s="16"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
       <c r="B123" s="2">
-        <f t="shared" si="20"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="19">
@@ -3786,11 +4251,11 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I123" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K123" s="16"/>
@@ -3798,10 +4263,10 @@
       <c r="M123" s="16"/>
       <c r="N123" s="16"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B124" s="2">
-        <f t="shared" si="20"/>
-        <v>-167</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="19">
@@ -3810,18 +4275,18 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I124" s="5">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B125" s="2">
-        <f t="shared" si="20"/>
-        <v>-175</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="19">
@@ -3830,21 +4295,21 @@
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H125" s="1">
         <v>8</v>
       </c>
       <c r="I125" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B126" s="2">
-        <f t="shared" si="20"/>
-        <v>-183</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="19">
@@ -3853,14 +4318,14 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H126" s="1">
         <v>8</v>
       </c>
       <c r="I126" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>-8</v>
       </c>
       <c r="K126" s="16"/>
@@ -3868,10 +4333,10 @@
       <c r="M126" s="16"/>
       <c r="N126" s="16"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B127" s="2">
-        <f t="shared" si="20"/>
-        <v>-183</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="19">
@@ -3880,10 +4345,10 @@
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="12">
-        <f t="shared" si="20"/>
-        <v>-183</v>
+    <row r="128" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B128" s="2">
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C128" s="12"/>
       <c r="D128" s="22">
@@ -3892,7 +4357,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="J128" s="8">
-        <f t="shared" ref="J128" si="24">SUM(I122:I126)</f>
+        <f t="shared" ref="J128" si="19">SUM(I122:I126)</f>
         <v>-16</v>
       </c>
       <c r="K128" s="17"/>
@@ -3900,10 +4365,10 @@
       <c r="M128" s="17"/>
       <c r="N128" s="17"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B129" s="2">
-        <f t="shared" si="20"/>
-        <v>-183</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="19">
@@ -3912,19 +4377,19 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5">
-        <f t="shared" ref="G129:G133" si="25">F129+E129</f>
+        <f t="shared" ref="G129:G133" si="20">F129+E129</f>
         <v>0</v>
       </c>
       <c r="H129" s="14"/>
       <c r="I129" s="5">
-        <f t="shared" ref="I129:I133" si="26">G129-H129</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I129:I133" si="21">G129-H129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B130" s="2">
-        <f t="shared" si="20"/>
-        <v>-183</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="19">
@@ -3933,11 +4398,11 @@
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I130" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K130" s="16"/>
@@ -3945,10 +4410,10 @@
       <c r="M130" s="16"/>
       <c r="N130" s="16"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B131" s="2">
-        <f t="shared" si="20"/>
-        <v>-183</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="19">
@@ -3957,18 +4422,18 @@
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I131" s="5">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B132" s="2">
-        <f t="shared" si="20"/>
-        <v>-191</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="19">
@@ -3977,21 +4442,21 @@
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H132" s="1">
         <v>8</v>
       </c>
       <c r="I132" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B133" s="2">
-        <f t="shared" si="20"/>
-        <v>-199</v>
+        <f t="shared" ref="B133:B196" si="22">B132+G132</f>
+        <v>33</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="19">
@@ -4000,14 +4465,14 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H133" s="1">
         <v>8</v>
       </c>
       <c r="I133" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>-8</v>
       </c>
       <c r="K133" s="16"/>
@@ -4015,10 +4480,10 @@
       <c r="M133" s="16"/>
       <c r="N133" s="16"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B134" s="2">
-        <f t="shared" si="20"/>
-        <v>-199</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="19">
@@ -4027,10 +4492,10 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="12">
-        <f t="shared" si="20"/>
-        <v>-199</v>
+    <row r="135" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B135" s="2">
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C135" s="12"/>
       <c r="D135" s="22">
@@ -4047,10 +4512,10 @@
       <c r="M135" s="17"/>
       <c r="N135" s="17"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B136" s="2">
-        <f t="shared" si="20"/>
-        <v>-199</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="19">
@@ -4059,12 +4524,12 @@
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5">
-        <f t="shared" ref="G136:G140" si="27">F136+E136</f>
+        <f t="shared" ref="G136:G140" si="23">F136+E136</f>
         <v>0</v>
       </c>
       <c r="H136" s="14"/>
       <c r="I136" s="5">
-        <f t="shared" ref="I136:I140" si="28">G136-H136</f>
+        <f t="shared" ref="I136:I140" si="24">G136-H136</f>
         <v>0</v>
       </c>
       <c r="K136" s="16"/>
@@ -4072,10 +4537,10 @@
       <c r="M136" s="16"/>
       <c r="N136" s="16"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B137" s="2">
-        <f t="shared" si="20"/>
-        <v>-199</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="19">
@@ -4084,11 +4549,11 @@
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I137" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K137" s="16"/>
@@ -4096,10 +4561,10 @@
       <c r="M137" s="16"/>
       <c r="N137" s="16"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B138" s="2">
-        <f t="shared" si="20"/>
-        <v>-199</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="19">
@@ -4108,18 +4573,18 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B139" s="2">
-        <f t="shared" si="20"/>
-        <v>-207</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="19">
@@ -4128,21 +4593,21 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H139" s="1">
         <v>8</v>
       </c>
       <c r="I139" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B140" s="2">
-        <f t="shared" si="20"/>
-        <v>-215</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="19">
@@ -4151,14 +4616,14 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H140" s="1">
         <v>8</v>
       </c>
       <c r="I140" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>-8</v>
       </c>
       <c r="K140" s="16"/>
@@ -4166,10 +4631,10 @@
       <c r="M140" s="16"/>
       <c r="N140" s="21"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B141" s="2">
-        <f>B140+G141-H141</f>
-        <v>-215</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="19">
@@ -4178,10 +4643,10 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="12">
-        <f t="shared" ref="B142:B154" si="29">B141+G142-H142</f>
-        <v>-215</v>
+    <row r="142" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B142" s="2">
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C142" s="12"/>
       <c r="D142" s="22">
@@ -4198,10 +4663,10 @@
       <c r="M142" s="17"/>
       <c r="N142" s="17"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B143" s="2">
-        <f t="shared" si="29"/>
-        <v>-215</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="19">
@@ -4210,12 +4675,12 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5">
-        <f t="shared" ref="G143:G147" si="30">F143+E143</f>
+        <f t="shared" ref="G143:G147" si="25">F143+E143</f>
         <v>0</v>
       </c>
       <c r="H143" s="14"/>
       <c r="I143" s="5">
-        <f t="shared" ref="I143:I147" si="31">G143-H143</f>
+        <f t="shared" ref="I143:I147" si="26">G143-H143</f>
         <v>0</v>
       </c>
       <c r="K143" s="16"/>
@@ -4223,10 +4688,10 @@
       <c r="M143" s="16"/>
       <c r="N143" s="16"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B144" s="2">
-        <f t="shared" si="29"/>
-        <v>-215</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="19">
@@ -4235,11 +4700,11 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I144" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K144" s="16"/>
@@ -4247,10 +4712,10 @@
       <c r="M144" s="16"/>
       <c r="N144" s="16"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B145" s="2">
-        <f t="shared" si="29"/>
-        <v>-215</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="19">
@@ -4259,18 +4724,18 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I145" s="5">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B146" s="2">
-        <f t="shared" si="29"/>
-        <v>-223</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="19">
@@ -4279,21 +4744,21 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H146" s="1">
         <v>8</v>
       </c>
       <c r="I146" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B147" s="2">
-        <f t="shared" si="29"/>
-        <v>-231</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="19">
@@ -4302,21 +4767,21 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H147" s="1">
         <v>8</v>
       </c>
       <c r="I147" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B148" s="2">
-        <f t="shared" si="29"/>
-        <v>-231</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="19">
@@ -4325,10 +4790,10 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="12">
-        <f t="shared" si="29"/>
-        <v>-231</v>
+    <row r="149" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B149" s="2">
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C149" s="12"/>
       <c r="D149" s="22">
@@ -4337,7 +4802,7 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="J149" s="8">
-        <f t="shared" ref="J149" si="32">SUM(I143:I147)</f>
+        <f t="shared" ref="J149" si="27">SUM(I143:I147)</f>
         <v>-16</v>
       </c>
       <c r="K149" s="17"/>
@@ -4345,11 +4810,11 @@
       <c r="M149" s="17"/>
       <c r="N149" s="17"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A150" s="5"/>
       <c r="B150" s="2">
-        <f t="shared" si="29"/>
-        <v>-231</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="19">
@@ -4358,12 +4823,12 @@
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5">
-        <f t="shared" ref="G150:G154" si="33">F150+E150</f>
+        <f t="shared" ref="G150:G154" si="28">F150+E150</f>
         <v>0</v>
       </c>
       <c r="H150" s="14"/>
       <c r="I150" s="5">
-        <f t="shared" ref="I150:I154" si="34">G150-H150</f>
+        <f t="shared" ref="I150:I154" si="29">G150-H150</f>
         <v>0</v>
       </c>
       <c r="K150" s="16"/>
@@ -4371,10 +4836,10 @@
       <c r="M150" s="16"/>
       <c r="N150" s="16"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B151" s="2">
-        <f t="shared" si="29"/>
-        <v>-231</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="19">
@@ -4383,11 +4848,11 @@
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I151" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K151" s="16"/>
@@ -4395,10 +4860,10 @@
       <c r="M151" s="16"/>
       <c r="N151" s="16"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B152" s="2">
-        <f t="shared" si="29"/>
-        <v>-231</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="19">
@@ -4407,11 +4872,11 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I152" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K152" s="16"/>
@@ -4419,11 +4884,11 @@
       <c r="M152" s="16"/>
       <c r="N152" s="16"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A153" s="4"/>
       <c r="B153" s="2">
-        <f t="shared" si="29"/>
-        <v>-239</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="19">
@@ -4432,22 +4897,22 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H153" s="1">
         <v>8</v>
       </c>
       <c r="I153" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A154" s="4"/>
       <c r="B154" s="2">
-        <f t="shared" si="29"/>
-        <v>-247</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="19">
@@ -4456,14 +4921,14 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H154" s="1">
         <v>8</v>
       </c>
       <c r="I154" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>-8</v>
       </c>
       <c r="K154" s="16"/>
@@ -4471,11 +4936,11 @@
       <c r="M154" s="16"/>
       <c r="N154" s="16"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A155" s="2"/>
       <c r="B155" s="2">
-        <f>B154+G155-H155</f>
-        <v>-247</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="19">
@@ -4484,11 +4949,11 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A156" s="12"/>
-      <c r="B156" s="12">
-        <f t="shared" ref="B156:B168" si="35">B155+G156-H156</f>
-        <v>-247</v>
+      <c r="B156" s="2">
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C156" s="12"/>
       <c r="D156" s="22">
@@ -4505,10 +4970,10 @@
       <c r="M156" s="17"/>
       <c r="N156" s="17"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B157" s="2">
-        <f t="shared" si="35"/>
-        <v>-247</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="19">
@@ -4521,14 +4986,14 @@
       </c>
       <c r="H157" s="14"/>
       <c r="I157" s="5">
-        <f t="shared" ref="I157:I161" si="36">G157-H157</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I157:I161" si="30">G157-H157</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B158" s="2">
-        <f t="shared" si="35"/>
-        <v>-247</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="19">
@@ -4537,20 +5002,20 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5">
-        <f t="shared" ref="G158" si="37">F158+E158</f>
+        <f t="shared" ref="G158" si="31">F158+E158</f>
         <v>0</v>
       </c>
       <c r="I158" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K158" s="16"/>
       <c r="L158" s="16"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B159" s="2">
-        <f t="shared" si="35"/>
-        <v>-247</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="19">
@@ -4563,14 +5028,14 @@
         <v>0</v>
       </c>
       <c r="I159" s="5">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B160" s="2">
-        <f t="shared" si="35"/>
-        <v>-255</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="19">
@@ -4579,21 +5044,21 @@
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5">
-        <f t="shared" ref="G160:G161" si="38">E160+F160</f>
+        <f t="shared" ref="G160:G161" si="32">E160+F160</f>
         <v>0</v>
       </c>
       <c r="H160" s="1">
         <v>8</v>
       </c>
       <c r="I160" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B161" s="2">
-        <f t="shared" si="35"/>
-        <v>-263</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="19">
@@ -4602,21 +5067,21 @@
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H161" s="1">
         <v>8</v>
       </c>
       <c r="I161" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B162" s="2">
-        <f t="shared" si="35"/>
-        <v>-263</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="19">
@@ -4625,10 +5090,10 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="12">
-        <f t="shared" si="35"/>
-        <v>-263</v>
+    <row r="163" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B163" s="2">
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C163" s="12"/>
       <c r="D163" s="22">
@@ -4645,10 +5110,10 @@
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B164" s="2">
-        <f t="shared" si="35"/>
-        <v>-263</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="19">
@@ -4662,14 +5127,14 @@
       </c>
       <c r="H164" s="14"/>
       <c r="I164" s="5">
-        <f t="shared" ref="I164:I168" si="39">G164-H164</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I164:I168" si="33">G164-H164</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B165" s="2">
-        <f t="shared" si="35"/>
-        <v>-263</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="19">
@@ -4682,14 +5147,14 @@
         <v>0</v>
       </c>
       <c r="I165" s="5">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B166" s="2">
-        <f t="shared" si="35"/>
-        <v>-263</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="19">
@@ -4698,18 +5163,18 @@
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5">
-        <f t="shared" ref="G166:G168" si="40">E166+F166</f>
+        <f t="shared" ref="G166:G168" si="34">E166+F166</f>
         <v>0</v>
       </c>
       <c r="I166" s="5">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B167" s="2">
-        <f t="shared" si="35"/>
-        <v>-271</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="19">
@@ -4718,21 +5183,21 @@
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H167" s="1">
         <v>8</v>
       </c>
       <c r="I167" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B168" s="2">
-        <f t="shared" si="35"/>
-        <v>-279</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="19">
@@ -4741,21 +5206,21 @@
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H168" s="1">
         <v>8</v>
       </c>
       <c r="I168" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B169" s="2">
-        <f>B168+G169-H169</f>
-        <v>-279</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="19">
@@ -4764,10 +5229,10 @@
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
     </row>
-    <row r="170" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="12">
-        <f t="shared" ref="B170:B175" si="41">B169+G170-H170</f>
-        <v>-279</v>
+    <row r="170" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B170" s="2">
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C170" s="12"/>
       <c r="D170" s="22">
@@ -4776,7 +5241,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
       <c r="J170" s="8">
-        <f t="shared" ref="J170" si="42">SUM(I164:I168)</f>
+        <f t="shared" ref="J170" si="35">SUM(I164:I168)</f>
         <v>-16</v>
       </c>
       <c r="K170" s="17"/>
@@ -4784,10 +5249,10 @@
       <c r="M170" s="17"/>
       <c r="N170" s="17"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B171" s="2">
-        <f t="shared" si="41"/>
-        <v>-279</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="19">
@@ -4801,14 +5266,14 @@
       </c>
       <c r="H171" s="14"/>
       <c r="I171" s="5">
-        <f t="shared" ref="I171:I175" si="43">G171-H171</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I171:I175" si="36">G171-H171</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B172" s="2">
-        <f t="shared" si="41"/>
-        <v>-279</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="19">
@@ -4821,14 +5286,14 @@
         <v>0</v>
       </c>
       <c r="I172" s="5">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B173" s="2">
-        <f t="shared" si="41"/>
-        <v>-279</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="19">
@@ -4837,18 +5302,18 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5">
-        <f t="shared" ref="G173:G175" si="44">E173+F173</f>
+        <f t="shared" ref="G173:G175" si="37">E173+F173</f>
         <v>0</v>
       </c>
       <c r="I173" s="5">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B174" s="2">
-        <f t="shared" si="41"/>
-        <v>-287</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="19">
@@ -4857,21 +5322,21 @@
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H174" s="1">
         <v>8</v>
       </c>
       <c r="I174" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B175" s="2">
-        <f t="shared" si="41"/>
-        <v>-295</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="19">
@@ -4880,21 +5345,21 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H175" s="1">
         <v>8</v>
       </c>
       <c r="I175" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B176" s="2">
-        <f>B175+G176-H176</f>
-        <v>-295</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="19">
@@ -4903,10 +5368,10 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
     </row>
-    <row r="177" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="12">
-        <f t="shared" ref="B177:B189" si="45">B176+G177-H177</f>
-        <v>-295</v>
+    <row r="177" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B177" s="2">
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C177" s="12"/>
       <c r="D177" s="22">
@@ -4923,10 +5388,10 @@
       <c r="M177" s="17"/>
       <c r="N177" s="17"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B178" s="2">
-        <f t="shared" si="45"/>
-        <v>-295</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="19">
@@ -4935,19 +5400,19 @@
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5">
-        <f t="shared" ref="G178:G182" si="46">F178+E178</f>
+        <f t="shared" ref="G178:G182" si="38">F178+E178</f>
         <v>0</v>
       </c>
       <c r="H178" s="14"/>
       <c r="I178" s="5">
-        <f t="shared" ref="I178:I182" si="47">G178-H178</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I178:I182" si="39">G178-H178</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B179" s="2">
-        <f t="shared" si="45"/>
-        <v>-295</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="19">
@@ -4956,18 +5421,18 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I179" s="5">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B180" s="2">
-        <f t="shared" si="45"/>
-        <v>-295</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="19">
@@ -4976,18 +5441,18 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I180" s="5">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B181" s="2">
-        <f t="shared" si="45"/>
-        <v>-303</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="19">
@@ -4996,21 +5461,21 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H181" s="1">
         <v>8</v>
       </c>
       <c r="I181" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B182" s="2">
-        <f t="shared" si="45"/>
-        <v>-311</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="19">
@@ -5019,22 +5484,22 @@
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H182" s="1">
         <v>8</v>
       </c>
       <c r="I182" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="39"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A183" s="4"/>
       <c r="B183" s="2">
-        <f t="shared" si="45"/>
-        <v>-311</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="19">
@@ -5043,11 +5508,11 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A184" s="7"/>
-      <c r="B184" s="12">
-        <f t="shared" si="45"/>
-        <v>-311</v>
+      <c r="B184" s="2">
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C184" s="12"/>
       <c r="D184" s="22">
@@ -5064,11 +5529,11 @@
       <c r="M184" s="17"/>
       <c r="N184" s="17"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A185" s="2"/>
       <c r="B185" s="2">
-        <f t="shared" si="45"/>
-        <v>-311</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="19">
@@ -5077,20 +5542,20 @@
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5">
-        <f t="shared" ref="G185:G189" si="48">F185+E185</f>
+        <f t="shared" ref="G185:G189" si="40">F185+E185</f>
         <v>0</v>
       </c>
       <c r="H185" s="14"/>
       <c r="I185" s="5">
-        <f t="shared" ref="I185:I189" si="49">G185-H185</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I185:I189" si="41">G185-H185</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A186" s="2"/>
       <c r="B186" s="2">
-        <f t="shared" si="45"/>
-        <v>-311</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="19">
@@ -5099,18 +5564,18 @@
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I186" s="5">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B187" s="2">
-        <f t="shared" si="45"/>
-        <v>-311</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="19">
@@ -5119,18 +5584,18 @@
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I187" s="5">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B188" s="2">
-        <f t="shared" si="45"/>
-        <v>-319</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="19">
@@ -5139,21 +5604,21 @@
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H188" s="1">
         <v>8</v>
       </c>
       <c r="I188" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B189" s="2">
-        <f t="shared" si="45"/>
-        <v>-327</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="19">
@@ -5162,21 +5627,21 @@
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H189" s="1">
         <v>8</v>
       </c>
       <c r="I189" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="41"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B190" s="2">
-        <f>B189+G190-H190</f>
-        <v>-327</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="19">
@@ -5185,10 +5650,10 @@
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
     </row>
-    <row r="191" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="12">
-        <f t="shared" ref="B191:B203" si="50">B190+G191-H191</f>
-        <v>-327</v>
+    <row r="191" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B191" s="2">
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C191" s="12"/>
       <c r="D191" s="22">
@@ -5205,10 +5670,10 @@
       <c r="M191" s="17"/>
       <c r="N191" s="17"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B192" s="2">
-        <f t="shared" si="50"/>
-        <v>-327</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="19">
@@ -5217,19 +5682,19 @@
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5">
-        <f t="shared" ref="G192:G196" si="51">F192+E192</f>
+        <f t="shared" ref="G192:G196" si="42">F192+E192</f>
         <v>0</v>
       </c>
       <c r="H192" s="14"/>
       <c r="I192" s="5">
-        <f t="shared" ref="I192:I196" si="52">G192-H192</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I192:I196" si="43">G192-H192</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B193" s="2">
-        <f t="shared" si="50"/>
-        <v>-327</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="19">
@@ -5238,18 +5703,18 @@
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I193" s="5">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B194" s="2">
-        <f t="shared" si="50"/>
-        <v>-327</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="19">
@@ -5258,11 +5723,11 @@
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I194" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="K194" s="16"/>
@@ -5270,10 +5735,10 @@
       <c r="M194" s="16"/>
       <c r="N194" s="16"/>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B195" s="2">
-        <f t="shared" si="50"/>
-        <v>-335</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="19">
@@ -5282,14 +5747,14 @@
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="H195" s="1">
         <v>8</v>
       </c>
       <c r="I195" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="43"/>
         <v>-8</v>
       </c>
       <c r="K195" s="16"/>
@@ -5297,10 +5762,10 @@
       <c r="M195" s="16"/>
       <c r="N195" s="16"/>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B196" s="2">
-        <f t="shared" si="50"/>
-        <v>-343</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="19">
@@ -5309,14 +5774,14 @@
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="H196" s="1">
         <v>8</v>
       </c>
       <c r="I196" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="43"/>
         <v>-8</v>
       </c>
       <c r="K196" s="16"/>
@@ -5324,10 +5789,10 @@
       <c r="M196" s="16"/>
       <c r="N196" s="16"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B197" s="2">
-        <f t="shared" si="50"/>
-        <v>-343</v>
+        <f t="shared" ref="B197:B260" si="44">B196+G196</f>
+        <v>33</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="19">
@@ -5336,10 +5801,10 @@
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="12">
-        <f t="shared" si="50"/>
-        <v>-343</v>
+    <row r="198" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B198" s="2">
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C198" s="12"/>
       <c r="D198" s="22">
@@ -5356,10 +5821,10 @@
       <c r="M198" s="17"/>
       <c r="N198" s="17"/>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B199" s="2">
-        <f t="shared" si="50"/>
-        <v>-343</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="19">
@@ -5368,12 +5833,12 @@
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5">
-        <f t="shared" ref="G199:G203" si="53">F199+E199</f>
+        <f t="shared" ref="G199:G203" si="45">F199+E199</f>
         <v>0</v>
       </c>
       <c r="H199" s="14"/>
       <c r="I199" s="5">
-        <f t="shared" ref="I199:I203" si="54">G199-H199</f>
+        <f t="shared" ref="I199:I203" si="46">G199-H199</f>
         <v>0</v>
       </c>
       <c r="K199" s="16"/>
@@ -5381,10 +5846,10 @@
       <c r="M199" s="16"/>
       <c r="N199" s="16"/>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B200" s="2">
-        <f t="shared" si="50"/>
-        <v>-343</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="19">
@@ -5393,11 +5858,11 @@
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I200" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="K200" s="16"/>
@@ -5405,10 +5870,10 @@
       <c r="M200" s="16"/>
       <c r="N200" s="21"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B201" s="2">
-        <f t="shared" si="50"/>
-        <v>-343</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="19">
@@ -5417,11 +5882,11 @@
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I201" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="K201" s="16"/>
@@ -5429,10 +5894,10 @@
       <c r="M201" s="16"/>
       <c r="N201" s="16"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B202" s="2">
-        <f t="shared" si="50"/>
-        <v>-351</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="19">
@@ -5441,14 +5906,14 @@
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H202" s="1">
         <v>8</v>
       </c>
       <c r="I202" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>-8</v>
       </c>
       <c r="K202" s="16"/>
@@ -5456,10 +5921,10 @@
       <c r="M202" s="16"/>
       <c r="N202" s="16"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B203" s="2">
-        <f t="shared" si="50"/>
-        <v>-359</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="19">
@@ -5468,14 +5933,14 @@
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H203" s="1">
         <v>8</v>
       </c>
       <c r="I203" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="46"/>
         <v>-8</v>
       </c>
       <c r="K203" s="16"/>
@@ -5483,10 +5948,10 @@
       <c r="M203" s="16"/>
       <c r="N203" s="16"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B204" s="2">
-        <f>B203+G204-H204</f>
-        <v>-359</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="19">
@@ -5495,10 +5960,10 @@
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
     </row>
-    <row r="205" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="12">
-        <f t="shared" ref="B205:B217" si="55">B204+G205-H205</f>
-        <v>-359</v>
+    <row r="205" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B205" s="2">
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C205" s="12"/>
       <c r="D205" s="22">
@@ -5507,7 +5972,7 @@
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
       <c r="J205" s="8">
-        <f t="shared" ref="J205" si="56">SUM(I199:I203)</f>
+        <f t="shared" ref="J205" si="47">SUM(I199:I203)</f>
         <v>-16</v>
       </c>
       <c r="K205" s="17"/>
@@ -5515,10 +5980,10 @@
       <c r="M205" s="17"/>
       <c r="N205" s="17"/>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B206" s="2">
-        <f t="shared" si="55"/>
-        <v>-359</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="19">
@@ -5532,14 +5997,14 @@
       </c>
       <c r="H206" s="14"/>
       <c r="I206" s="5">
-        <f t="shared" ref="I206:I210" si="57">G206-H206</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I206:I210" si="48">G206-H206</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B207" s="2">
-        <f t="shared" si="55"/>
-        <v>-359</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="19">
@@ -5552,14 +6017,14 @@
         <v>0</v>
       </c>
       <c r="I207" s="5">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B208" s="2">
-        <f t="shared" si="55"/>
-        <v>-359</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="19">
@@ -5568,18 +6033,18 @@
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5">
-        <f t="shared" ref="G208:G224" si="58">E208+F208</f>
+        <f t="shared" ref="G208:G224" si="49">E208+F208</f>
         <v>0</v>
       </c>
       <c r="I208" s="5">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B209" s="2">
-        <f t="shared" si="55"/>
-        <v>-367</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="19">
@@ -5588,21 +6053,21 @@
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H209" s="1">
         <v>8</v>
       </c>
       <c r="I209" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="48"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B210" s="2">
-        <f t="shared" si="55"/>
-        <v>-375</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="19">
@@ -5611,21 +6076,21 @@
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H210" s="1">
         <v>8</v>
       </c>
       <c r="I210" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="48"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B211" s="2">
-        <f t="shared" si="55"/>
-        <v>-375</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="19">
@@ -5635,10 +6100,10 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="12">
-        <f t="shared" si="55"/>
-        <v>-375</v>
+    <row r="212" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B212" s="2">
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C212" s="12"/>
       <c r="D212" s="22">
@@ -5656,10 +6121,10 @@
       <c r="M212" s="17"/>
       <c r="N212" s="17"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B213" s="2">
-        <f t="shared" si="55"/>
-        <v>-375</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="19">
@@ -5668,20 +6133,20 @@
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H213" s="14"/>
       <c r="I213" s="5">
-        <f t="shared" ref="I213:I217" si="59">G213-H213</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I213:I217" si="50">G213-H213</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A214" s="4"/>
       <c r="B214" s="2">
-        <f t="shared" si="55"/>
-        <v>-375</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="19">
@@ -5690,7 +6155,7 @@
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I214" s="5">
@@ -5698,11 +6163,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A215" s="4"/>
       <c r="B215" s="2">
-        <f t="shared" si="55"/>
-        <v>-375</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="19">
@@ -5711,19 +6176,19 @@
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I215" s="5">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A216" s="2"/>
       <c r="B216" s="2">
-        <f t="shared" si="55"/>
-        <v>-383</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="19">
@@ -5732,22 +6197,22 @@
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H216" s="1">
         <v>8</v>
       </c>
       <c r="I216" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="50"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A217" s="2"/>
       <c r="B217" s="2">
-        <f t="shared" si="55"/>
-        <v>-391</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="19">
@@ -5756,21 +6221,21 @@
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H217" s="1">
         <v>8</v>
       </c>
       <c r="I217" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="50"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B218" s="2">
-        <f>B217+G218-H218</f>
-        <v>-391</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="19">
@@ -5780,10 +6245,10 @@
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="12">
-        <f t="shared" ref="B219:B231" si="60">B218+G219-H219</f>
-        <v>-391</v>
+    <row r="219" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B219" s="2">
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C219" s="12"/>
       <c r="D219" s="22">
@@ -5801,10 +6266,10 @@
       <c r="M219" s="17"/>
       <c r="N219" s="17"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B220" s="2">
-        <f t="shared" si="60"/>
-        <v>-391</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="19">
@@ -5813,19 +6278,19 @@
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H220" s="14"/>
       <c r="I220" s="5">
-        <f t="shared" ref="I220:I224" si="61">G220-H220</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I220:I224" si="51">G220-H220</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B221" s="2">
-        <f t="shared" si="60"/>
-        <v>-391</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="19">
@@ -5834,18 +6299,18 @@
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I221" s="5">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B222" s="2">
-        <f t="shared" si="60"/>
-        <v>-391</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="19">
@@ -5854,18 +6319,18 @@
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
       <c r="G222" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I222" s="5">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B223" s="2">
-        <f t="shared" si="60"/>
-        <v>-399</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="19">
@@ -5874,21 +6339,21 @@
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
       <c r="G223" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H223" s="1">
         <v>8</v>
       </c>
       <c r="I223" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B224" s="2">
-        <f t="shared" si="60"/>
-        <v>-407</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="19">
@@ -5897,21 +6362,21 @@
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
       <c r="G224" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H224" s="1">
         <v>8</v>
       </c>
       <c r="I224" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="51"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B225" s="2">
-        <f t="shared" si="60"/>
-        <v>-407</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="19">
@@ -5920,10 +6385,10 @@
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
     </row>
-    <row r="226" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="12">
-        <f t="shared" si="60"/>
-        <v>-407</v>
+    <row r="226" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B226" s="2">
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C226" s="12"/>
       <c r="D226" s="22">
@@ -5932,7 +6397,7 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
       <c r="J226" s="8">
-        <f t="shared" ref="J226" si="62">SUM(I220:I224)</f>
+        <f t="shared" ref="J226" si="52">SUM(I220:I224)</f>
         <v>-16</v>
       </c>
       <c r="K226" s="17"/>
@@ -5940,10 +6405,10 @@
       <c r="M226" s="17"/>
       <c r="N226" s="17"/>
     </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B227" s="2">
-        <f t="shared" si="60"/>
-        <v>-407</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="19">
@@ -5952,12 +6417,12 @@
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5">
-        <f t="shared" ref="G227:G231" si="63">F227+E227</f>
+        <f t="shared" ref="G227:G231" si="53">F227+E227</f>
         <v>0</v>
       </c>
       <c r="H227" s="14"/>
       <c r="I227" s="5">
-        <f t="shared" ref="I227:I231" si="64">G227-H227</f>
+        <f t="shared" ref="I227:I231" si="54">G227-H227</f>
         <v>0</v>
       </c>
       <c r="K227" s="16"/>
@@ -5965,10 +6430,10 @@
       <c r="M227" s="16"/>
       <c r="N227" s="16"/>
     </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B228" s="2">
-        <f t="shared" si="60"/>
-        <v>-407</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="19">
@@ -5977,11 +6442,11 @@
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
       <c r="G228" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="I228" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K228" s="16"/>
@@ -5989,10 +6454,10 @@
       <c r="M228" s="16"/>
       <c r="N228" s="16"/>
     </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B229" s="2">
-        <f t="shared" si="60"/>
-        <v>-407</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="19">
@@ -6001,11 +6466,11 @@
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
       <c r="G229" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="I229" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K229" s="16"/>
@@ -6013,10 +6478,10 @@
       <c r="M229" s="16"/>
       <c r="N229" s="16"/>
     </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B230" s="2">
-        <f t="shared" si="60"/>
-        <v>-415</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="19">
@@ -6025,14 +6490,14 @@
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
       <c r="G230" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H230" s="1">
         <v>8</v>
       </c>
       <c r="I230" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>-8</v>
       </c>
       <c r="K230" s="16"/>
@@ -6040,10 +6505,10 @@
       <c r="M230" s="16"/>
       <c r="N230" s="16"/>
     </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B231" s="2">
-        <f t="shared" si="60"/>
-        <v>-423</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="19">
@@ -6052,14 +6517,14 @@
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
       <c r="G231" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H231" s="1">
         <v>8</v>
       </c>
       <c r="I231" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="54"/>
         <v>-8</v>
       </c>
       <c r="K231" s="16"/>
@@ -6067,10 +6532,10 @@
       <c r="M231" s="16"/>
       <c r="N231" s="16"/>
     </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B232" s="2">
-        <f>B231+G232-H232</f>
-        <v>-423</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="19">
@@ -6079,10 +6544,10 @@
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
     </row>
-    <row r="233" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="12">
-        <f t="shared" ref="B233:B249" si="65">B232+G233-H233</f>
-        <v>-423</v>
+    <row r="233" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B233" s="2">
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C233" s="12"/>
       <c r="D233" s="22">
@@ -6099,10 +6564,10 @@
       <c r="M233" s="17"/>
       <c r="N233" s="17"/>
     </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B234" s="2">
-        <f t="shared" si="65"/>
-        <v>-423</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="19">
@@ -6111,12 +6576,12 @@
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
       <c r="G234" s="5">
-        <f t="shared" ref="G234:G238" si="66">F234+E234</f>
+        <f t="shared" ref="G234:G238" si="55">F234+E234</f>
         <v>0</v>
       </c>
       <c r="H234" s="14"/>
       <c r="I234" s="5">
-        <f t="shared" ref="I234:I238" si="67">G234-H234</f>
+        <f t="shared" ref="I234:I238" si="56">G234-H234</f>
         <v>0</v>
       </c>
       <c r="K234" s="16"/>
@@ -6124,10 +6589,10 @@
       <c r="M234" s="16"/>
       <c r="N234" s="16"/>
     </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B235" s="2">
-        <f t="shared" si="65"/>
-        <v>-423</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="19">
@@ -6136,11 +6601,11 @@
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
       <c r="G235" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I235" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="K235" s="16"/>
@@ -6148,10 +6613,10 @@
       <c r="M235" s="16"/>
       <c r="N235" s="16"/>
     </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B236" s="2">
-        <f t="shared" si="65"/>
-        <v>-423</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="19">
@@ -6160,11 +6625,11 @@
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
       <c r="G236" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I236" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="K236" s="16"/>
@@ -6172,10 +6637,10 @@
       <c r="M236" s="16"/>
       <c r="N236" s="16"/>
     </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B237" s="2">
-        <f t="shared" si="65"/>
-        <v>-431</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="19">
@@ -6184,14 +6649,14 @@
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
       <c r="G237" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H237" s="1">
         <v>8</v>
       </c>
       <c r="I237" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="56"/>
         <v>-8</v>
       </c>
       <c r="K237" s="16"/>
@@ -6199,10 +6664,10 @@
       <c r="M237" s="16"/>
       <c r="N237" s="16"/>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B238" s="2">
-        <f t="shared" si="65"/>
-        <v>-439</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="19">
@@ -6211,14 +6676,14 @@
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
       <c r="G238" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H238" s="1">
         <v>8</v>
       </c>
       <c r="I238" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="56"/>
         <v>-8</v>
       </c>
       <c r="K238" s="16"/>
@@ -6226,10 +6691,10 @@
       <c r="M238" s="16"/>
       <c r="N238" s="16"/>
     </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B239" s="2">
-        <f t="shared" si="65"/>
-        <v>-439</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="19">
@@ -6238,10 +6703,10 @@
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
     </row>
-    <row r="240" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="12">
-        <f t="shared" si="65"/>
-        <v>-439</v>
+    <row r="240" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B240" s="2">
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C240" s="12"/>
       <c r="D240" s="22">
@@ -6258,10 +6723,10 @@
       <c r="M240" s="17"/>
       <c r="N240" s="17"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B241" s="2">
-        <f t="shared" si="65"/>
-        <v>-439</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="19">
@@ -6270,12 +6735,12 @@
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
       <c r="G241" s="5">
-        <f t="shared" ref="G241:G245" si="68">F241+E241</f>
+        <f t="shared" ref="G241:G245" si="57">F241+E241</f>
         <v>0</v>
       </c>
       <c r="H241" s="14"/>
       <c r="I241" s="5">
-        <f t="shared" ref="I241:I245" si="69">G241-H241</f>
+        <f t="shared" ref="I241:I245" si="58">G241-H241</f>
         <v>0</v>
       </c>
       <c r="K241" s="16"/>
@@ -6283,10 +6748,10 @@
       <c r="M241" s="16"/>
       <c r="N241" s="16"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B242" s="2">
-        <f t="shared" si="65"/>
-        <v>-439</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="19">
@@ -6295,11 +6760,11 @@
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
       <c r="G242" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="I242" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K242" s="16"/>
@@ -6307,10 +6772,10 @@
       <c r="M242" s="16"/>
       <c r="N242" s="16"/>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B243" s="2">
-        <f t="shared" si="65"/>
-        <v>-439</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="19">
@@ -6319,11 +6784,11 @@
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
       <c r="G243" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="I243" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K243" s="16"/>
@@ -6331,10 +6796,10 @@
       <c r="M243" s="16"/>
       <c r="N243" s="16"/>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B244" s="2">
-        <f t="shared" si="65"/>
-        <v>-447</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="19">
@@ -6343,14 +6808,14 @@
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
       <c r="G244" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="H244" s="1">
         <v>8</v>
       </c>
       <c r="I244" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="58"/>
         <v>-8</v>
       </c>
       <c r="K244" s="16"/>
@@ -6358,11 +6823,11 @@
       <c r="M244" s="16"/>
       <c r="N244" s="16"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A245" s="4"/>
       <c r="B245" s="2">
-        <f t="shared" si="65"/>
-        <v>-455</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="19">
@@ -6371,22 +6836,22 @@
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
       <c r="G245" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="H245" s="1">
         <v>8</v>
       </c>
       <c r="I245" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="58"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A246" s="4"/>
       <c r="B246" s="2">
-        <f t="shared" si="65"/>
-        <v>-455</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="19">
@@ -6395,11 +6860,11 @@
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
     </row>
-    <row r="247" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A247" s="12"/>
-      <c r="B247" s="12">
-        <f t="shared" si="65"/>
-        <v>-455</v>
+      <c r="B247" s="2">
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C247" s="12"/>
       <c r="D247" s="22">
@@ -6408,7 +6873,7 @@
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
       <c r="J247" s="8">
-        <f t="shared" ref="J247" si="70">SUM(I241:I245)</f>
+        <f t="shared" ref="J247" si="59">SUM(I241:I245)</f>
         <v>-16</v>
       </c>
       <c r="K247" s="17"/>
@@ -6416,11 +6881,11 @@
       <c r="M247" s="17"/>
       <c r="N247" s="17"/>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A248" s="2"/>
       <c r="B248" s="2">
-        <f t="shared" si="65"/>
-        <v>-455</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="19">
@@ -6429,12 +6894,12 @@
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
       <c r="G248" s="5">
-        <f t="shared" ref="G248:G252" si="71">F248+E248</f>
+        <f t="shared" ref="G248:G252" si="60">F248+E248</f>
         <v>0</v>
       </c>
       <c r="H248" s="14"/>
       <c r="I248" s="5">
-        <f t="shared" ref="I248:I252" si="72">G248-H248</f>
+        <f t="shared" ref="I248:I252" si="61">G248-H248</f>
         <v>0</v>
       </c>
       <c r="K248" s="16"/>
@@ -6442,10 +6907,10 @@
       <c r="M248" s="16"/>
       <c r="N248" s="16"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B249" s="2">
-        <f t="shared" si="65"/>
-        <v>-455</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="19">
@@ -6454,11 +6919,11 @@
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
       <c r="G249" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I249" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="K249" s="16"/>
@@ -6466,10 +6931,10 @@
       <c r="M249" s="16"/>
       <c r="N249" s="16"/>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B250" s="2">
-        <f>B249+G250-H250</f>
-        <v>-455</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="19">
@@ -6478,11 +6943,11 @@
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
       <c r="G250" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I250" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="K250" s="16"/>
@@ -6490,10 +6955,10 @@
       <c r="M250" s="16"/>
       <c r="N250" s="21"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B251" s="2">
-        <f t="shared" ref="B251:B259" si="73">B250+G251-H251</f>
-        <v>-463</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="19">
@@ -6502,21 +6967,21 @@
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
       <c r="G251" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H251" s="1">
         <v>8</v>
       </c>
       <c r="I251" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="61"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B252" s="2">
-        <f t="shared" si="73"/>
-        <v>-471</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="19">
@@ -6525,21 +6990,21 @@
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
       <c r="G252" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H252" s="1">
         <v>8</v>
       </c>
       <c r="I252" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="61"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B253" s="2">
-        <f t="shared" si="73"/>
-        <v>-471</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="19">
@@ -6548,10 +7013,10 @@
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
     </row>
-    <row r="254" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="12">
-        <f t="shared" si="73"/>
-        <v>-471</v>
+    <row r="254" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B254" s="2">
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C254" s="12"/>
       <c r="D254" s="22">
@@ -6560,7 +7025,7 @@
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
       <c r="J254" s="8">
-        <f t="shared" ref="J254" si="74">SUM(I248:I252)</f>
+        <f t="shared" ref="J254" si="62">SUM(I248:I252)</f>
         <v>-16</v>
       </c>
       <c r="K254" s="17"/>
@@ -6568,10 +7033,10 @@
       <c r="M254" s="17"/>
       <c r="N254" s="17"/>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B255" s="2">
-        <f t="shared" si="73"/>
-        <v>-471</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="19">
@@ -6580,19 +7045,19 @@
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
       <c r="G255" s="5">
-        <f t="shared" ref="G255:G259" si="75">F255+E255</f>
+        <f t="shared" ref="G255:G259" si="63">F255+E255</f>
         <v>0</v>
       </c>
       <c r="H255" s="14"/>
       <c r="I255" s="5">
-        <f t="shared" ref="I255:I259" si="76">G255-H255</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I255:I259" si="64">G255-H255</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B256" s="2">
-        <f t="shared" si="73"/>
-        <v>-471</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="19">
@@ -6601,18 +7066,18 @@
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
       <c r="G256" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I256" s="5">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B257" s="2">
-        <f t="shared" si="73"/>
-        <v>-471</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="19">
@@ -6621,18 +7086,18 @@
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
       <c r="G257" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I257" s="5">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B258" s="2">
-        <f t="shared" si="73"/>
-        <v>-479</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="19">
@@ -6641,21 +7106,21 @@
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
       <c r="G258" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="H258" s="1">
         <v>8</v>
       </c>
       <c r="I258" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="259" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B259" s="2">
-        <f t="shared" si="73"/>
-        <v>-487</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="19">
@@ -6664,21 +7129,21 @@
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
       <c r="G259" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="H259" s="1">
         <v>8</v>
       </c>
       <c r="I259" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="260" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B260" s="2">
-        <f>B259+G260-H260</f>
-        <v>-487</v>
+        <f t="shared" si="44"/>
+        <v>33</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="19">
@@ -6687,10 +7152,10 @@
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
     </row>
-    <row r="261" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="12">
-        <f t="shared" ref="B261:B273" si="77">B260+G261-H261</f>
-        <v>-487</v>
+    <row r="261" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B261" s="2">
+        <f t="shared" ref="B261:B324" si="65">B260+G260</f>
+        <v>33</v>
       </c>
       <c r="C261" s="12"/>
       <c r="D261" s="22">
@@ -6707,10 +7172,10 @@
       <c r="M261" s="17"/>
       <c r="N261" s="17"/>
     </row>
-    <row r="262" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B262" s="2">
-        <f t="shared" si="77"/>
-        <v>-487</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="19">
@@ -6719,19 +7184,19 @@
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
       <c r="G262" s="5">
-        <f t="shared" ref="G262:G266" si="78">F262+E262</f>
+        <f t="shared" ref="G262:G266" si="66">F262+E262</f>
         <v>0</v>
       </c>
       <c r="H262" s="14"/>
       <c r="I262" s="5">
-        <f t="shared" ref="I262:I266" si="79">G262-H262</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I262:I266" si="67">G262-H262</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B263" s="2">
-        <f t="shared" si="77"/>
-        <v>-487</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="19">
@@ -6740,19 +7205,19 @@
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
       <c r="G263" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="H263" s="14"/>
       <c r="I263" s="5">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B264" s="2">
-        <f t="shared" si="77"/>
-        <v>-487</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="19">
@@ -6761,18 +7226,18 @@
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
       <c r="G264" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="I264" s="5">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B265" s="2">
-        <f t="shared" si="77"/>
-        <v>-495</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="19">
@@ -6781,21 +7246,21 @@
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
       <c r="G265" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="H265" s="1">
         <v>8</v>
       </c>
       <c r="I265" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="266" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B266" s="2">
-        <f t="shared" si="77"/>
-        <v>-503</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="19">
@@ -6804,21 +7269,21 @@
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
       <c r="G266" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="H266" s="1">
         <v>8</v>
       </c>
       <c r="I266" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B267" s="2">
-        <f t="shared" si="77"/>
-        <v>-503</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="19">
@@ -6827,10 +7292,10 @@
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
     </row>
-    <row r="268" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="12">
-        <f t="shared" si="77"/>
-        <v>-503</v>
+    <row r="268" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B268" s="2">
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C268" s="12"/>
       <c r="D268" s="22">
@@ -6847,10 +7312,10 @@
       <c r="M268" s="17"/>
       <c r="N268" s="17"/>
     </row>
-    <row r="269" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B269" s="2">
-        <f t="shared" si="77"/>
-        <v>-503</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="19">
@@ -6859,19 +7324,19 @@
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
       <c r="G269" s="5">
-        <f t="shared" ref="G269:G273" si="80">F269+E269</f>
+        <f t="shared" ref="G269:G273" si="68">F269+E269</f>
         <v>0</v>
       </c>
       <c r="H269" s="14"/>
       <c r="I269" s="5">
-        <f t="shared" ref="I269:I273" si="81">G269-H269</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I269:I273" si="69">G269-H269</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B270" s="2">
-        <f t="shared" si="77"/>
-        <v>-503</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="19">
@@ -6880,18 +7345,18 @@
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
       <c r="G270" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="I270" s="5">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B271" s="2">
-        <f t="shared" si="77"/>
-        <v>-503</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" s="19">
@@ -6900,18 +7365,18 @@
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
       <c r="G271" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="I271" s="5">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B272" s="2">
-        <f t="shared" si="77"/>
-        <v>-511</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" s="19">
@@ -6920,21 +7385,21 @@
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
       <c r="G272" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H272" s="1">
         <v>8</v>
       </c>
       <c r="I272" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B273" s="2">
-        <f t="shared" si="77"/>
-        <v>-519</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="19">
@@ -6943,22 +7408,22 @@
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
       <c r="G273" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H273" s="1">
         <v>8</v>
       </c>
       <c r="I273" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A274" s="4"/>
       <c r="B274" s="2">
-        <f>B273+G274-H274</f>
-        <v>-527</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="19">
@@ -6970,11 +7435,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A275" s="7"/>
-      <c r="B275" s="12">
-        <f t="shared" ref="B275:B302" si="82">B274+G275-H275</f>
-        <v>-527</v>
+      <c r="B275" s="2">
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C275" s="12"/>
       <c r="D275" s="22">
@@ -6983,7 +7448,7 @@
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
       <c r="J275" s="8">
-        <f t="shared" ref="J275" si="83">SUM(I269:I273)</f>
+        <f t="shared" ref="J275" si="70">SUM(I269:I273)</f>
         <v>-16</v>
       </c>
       <c r="K275" s="17"/>
@@ -6991,11 +7456,11 @@
       <c r="M275" s="17"/>
       <c r="N275" s="17"/>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A276" s="2"/>
       <c r="B276" s="2">
-        <f t="shared" si="82"/>
-        <v>-527</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="19">
@@ -7004,20 +7469,20 @@
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
       <c r="G276" s="5">
-        <f t="shared" ref="G276:G280" si="84">F276+E276</f>
+        <f t="shared" ref="G276:G280" si="71">F276+E276</f>
         <v>0</v>
       </c>
       <c r="H276" s="14"/>
       <c r="I276" s="5">
-        <f t="shared" ref="I276:I280" si="85">G276-H276</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I276:I280" si="72">G276-H276</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A277" s="2"/>
       <c r="B277" s="2">
-        <f t="shared" si="82"/>
-        <v>-527</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="19">
@@ -7026,18 +7491,18 @@
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
       <c r="G277" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="I277" s="5">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B278" s="2">
-        <f t="shared" si="82"/>
-        <v>-527</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="19">
@@ -7046,18 +7511,18 @@
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
       <c r="G278" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="I278" s="5">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B279" s="2">
-        <f t="shared" si="82"/>
-        <v>-535</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" s="19">
@@ -7066,21 +7531,21 @@
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
       <c r="G279" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="H279" s="1">
         <v>8</v>
       </c>
       <c r="I279" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="72"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B280" s="2">
-        <f t="shared" si="82"/>
-        <v>-543</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="19">
@@ -7089,21 +7554,21 @@
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
       <c r="G280" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="H280" s="1">
         <v>8</v>
       </c>
       <c r="I280" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="72"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B281" s="2">
-        <f t="shared" si="82"/>
-        <v>-551</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="19">
@@ -7115,10 +7580,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="12">
-        <f t="shared" si="82"/>
-        <v>-551</v>
+    <row r="282" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B282" s="2">
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C282" s="12"/>
       <c r="D282" s="22">
@@ -7127,7 +7592,7 @@
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
       <c r="J282" s="8">
-        <f t="shared" ref="J282" si="86">SUM(I276:I280)</f>
+        <f t="shared" ref="J282" si="73">SUM(I276:I280)</f>
         <v>-16</v>
       </c>
       <c r="K282" s="17"/>
@@ -7135,10 +7600,10 @@
       <c r="M282" s="17"/>
       <c r="N282" s="17"/>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B283" s="2">
-        <f t="shared" si="82"/>
-        <v>-551</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="19">
@@ -7147,19 +7612,19 @@
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
       <c r="G283" s="5">
-        <f t="shared" ref="G283:G287" si="87">F283+E283</f>
+        <f t="shared" ref="G283:G287" si="74">F283+E283</f>
         <v>0</v>
       </c>
       <c r="H283" s="14"/>
       <c r="I283" s="5">
-        <f t="shared" ref="I283:I287" si="88">G283-H283</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I283:I287" si="75">G283-H283</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B284" s="2">
-        <f t="shared" si="82"/>
-        <v>-551</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="19">
@@ -7168,18 +7633,18 @@
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
       <c r="G284" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I284" s="5">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B285" s="2">
-        <f t="shared" si="82"/>
-        <v>-551</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="19">
@@ -7188,18 +7653,18 @@
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
       <c r="G285" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I285" s="5">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B286" s="2">
-        <f t="shared" si="82"/>
-        <v>-559</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="19">
@@ -7208,21 +7673,21 @@
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
       <c r="G286" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H286" s="1">
         <v>8</v>
       </c>
       <c r="I286" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="75"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B287" s="2">
-        <f t="shared" si="82"/>
-        <v>-567</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="19">
@@ -7231,21 +7696,21 @@
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
       <c r="G287" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="H287" s="1">
         <v>8</v>
       </c>
       <c r="I287" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="75"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B288" s="2">
-        <f t="shared" si="82"/>
-        <v>-575</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="19">
@@ -7257,10 +7722,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="12">
-        <f t="shared" si="82"/>
-        <v>-575</v>
+    <row r="289" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B289" s="2">
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C289" s="12"/>
       <c r="D289" s="22">
@@ -7269,7 +7734,7 @@
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
       <c r="J289" s="8">
-        <f t="shared" ref="J289" si="89">SUM(I283:I287)</f>
+        <f t="shared" ref="J289" si="76">SUM(I283:I287)</f>
         <v>-16</v>
       </c>
       <c r="K289" s="17"/>
@@ -7277,10 +7742,10 @@
       <c r="M289" s="17"/>
       <c r="N289" s="17"/>
     </row>
-    <row r="290" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B290" s="2">
-        <f t="shared" si="82"/>
-        <v>-575</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="19">
@@ -7289,19 +7754,19 @@
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
       <c r="G290" s="5">
-        <f t="shared" ref="G290:G294" si="90">F290+E290</f>
+        <f t="shared" ref="G290:G294" si="77">F290+E290</f>
         <v>0</v>
       </c>
       <c r="H290" s="14"/>
       <c r="I290" s="5">
-        <f t="shared" ref="I290:I294" si="91">G290-H290</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I290:I294" si="78">G290-H290</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B291" s="2">
-        <f t="shared" si="82"/>
-        <v>-575</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="19">
@@ -7310,18 +7775,18 @@
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
       <c r="G291" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="I291" s="5">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B292" s="2">
-        <f t="shared" si="82"/>
-        <v>-575</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="19">
@@ -7330,18 +7795,18 @@
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
       <c r="G292" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="I292" s="5">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B293" s="2">
-        <f t="shared" si="82"/>
-        <v>-583</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="19">
@@ -7350,21 +7815,21 @@
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
       <c r="G293" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="H293" s="1">
         <v>8</v>
       </c>
       <c r="I293" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="78"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="294" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B294" s="2">
-        <f t="shared" si="82"/>
-        <v>-591</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" s="19">
@@ -7373,21 +7838,21 @@
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
       <c r="G294" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="H294" s="1">
         <v>8</v>
       </c>
       <c r="I294" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="78"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="295" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B295" s="2">
-        <f t="shared" si="82"/>
-        <v>-599</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="19">
@@ -7399,10 +7864,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="12">
-        <f t="shared" si="82"/>
-        <v>-599</v>
+    <row r="296" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B296" s="2">
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C296" s="12"/>
       <c r="D296" s="22">
@@ -7419,10 +7884,10 @@
       <c r="M296" s="17"/>
       <c r="N296" s="17"/>
     </row>
-    <row r="297" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B297" s="2">
-        <f t="shared" si="82"/>
-        <v>-599</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="19">
@@ -7431,19 +7896,19 @@
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
       <c r="G297" s="5">
-        <f t="shared" ref="G297:G301" si="92">F297+E297</f>
+        <f t="shared" ref="G297:G301" si="79">F297+E297</f>
         <v>0</v>
       </c>
       <c r="H297" s="14"/>
       <c r="I297" s="5">
-        <f t="shared" ref="I297:I301" si="93">G297-H297</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I297:I301" si="80">G297-H297</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B298" s="2">
-        <f t="shared" si="82"/>
-        <v>-599</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="19">
@@ -7452,18 +7917,18 @@
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
       <c r="G298" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="I298" s="5">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B299" s="2">
-        <f t="shared" si="82"/>
-        <v>-599</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="19">
@@ -7472,18 +7937,18 @@
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
       <c r="G299" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="I299" s="5">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B300" s="2">
-        <f t="shared" si="82"/>
-        <v>-607</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="19">
@@ -7492,21 +7957,21 @@
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
       <c r="G300" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="H300" s="1">
         <v>8</v>
       </c>
       <c r="I300" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="80"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="301" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B301" s="2">
-        <f t="shared" si="82"/>
-        <v>-615</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="19">
@@ -7515,21 +7980,21 @@
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
       <c r="G301" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="H301" s="1">
         <v>8</v>
       </c>
       <c r="I301" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="80"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="302" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B302" s="2">
-        <f t="shared" si="82"/>
-        <v>-623</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="19">
@@ -7541,10 +8006,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="12">
-        <f>B302+G303-H303</f>
-        <v>-623</v>
+    <row r="303" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B303" s="2">
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C303" s="12"/>
       <c r="D303" s="22">
@@ -7561,10 +8026,10 @@
       <c r="M303" s="17"/>
       <c r="N303" s="17"/>
     </row>
-    <row r="304" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B304" s="2">
-        <f>B303+G304-H304</f>
-        <v>-623</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="19">
@@ -7573,19 +8038,19 @@
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
       <c r="G304" s="5">
-        <f t="shared" ref="G304:G308" si="94">F304+E304</f>
+        <f t="shared" ref="G304:G308" si="81">F304+E304</f>
         <v>0</v>
       </c>
       <c r="H304" s="14"/>
       <c r="I304" s="5">
-        <f t="shared" ref="I304:I308" si="95">G304-H304</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I304:I308" si="82">G304-H304</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B305" s="2">
-        <f t="shared" ref="B305:B368" si="96">B304+G305-H305</f>
-        <v>-623</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="19">
@@ -7594,19 +8059,19 @@
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
       <c r="G305" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="I305" s="5">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A306" s="4"/>
       <c r="B306" s="2">
-        <f t="shared" si="96"/>
-        <v>-623</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="19">
@@ -7615,19 +8080,19 @@
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
       <c r="G306" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="I306" s="5">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A307" s="4"/>
       <c r="B307" s="2">
-        <f t="shared" si="96"/>
-        <v>-631</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="19">
@@ -7636,22 +8101,22 @@
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
       <c r="G307" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="H307" s="1">
         <v>8</v>
       </c>
       <c r="I307" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="82"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A308" s="2"/>
       <c r="B308" s="2">
-        <f t="shared" si="96"/>
-        <v>-639</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="19">
@@ -7660,22 +8125,22 @@
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
       <c r="G308" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="H308" s="1">
         <v>8</v>
       </c>
       <c r="I308" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="82"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A309" s="2"/>
       <c r="B309" s="2">
-        <f t="shared" si="96"/>
-        <v>-647</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="19">
@@ -7687,10 +8152,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B310" s="12">
-        <f t="shared" si="96"/>
-        <v>-647</v>
+    <row r="310" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B310" s="2">
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C310" s="12"/>
       <c r="D310" s="22">
@@ -7699,7 +8164,7 @@
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
       <c r="J310" s="8">
-        <f t="shared" ref="J310" si="97">SUM(I304:I308)</f>
+        <f t="shared" ref="J310" si="83">SUM(I304:I308)</f>
         <v>-16</v>
       </c>
       <c r="K310" s="17"/>
@@ -7707,10 +8172,10 @@
       <c r="M310" s="17"/>
       <c r="N310" s="17"/>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B311" s="2">
-        <f t="shared" si="96"/>
-        <v>-655</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="19">
@@ -7719,21 +8184,21 @@
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
       <c r="G311" s="5">
-        <f t="shared" ref="G311:G315" si="98">F311+E311</f>
+        <f t="shared" ref="G311:G315" si="84">F311+E311</f>
         <v>0</v>
       </c>
       <c r="H311" s="14">
         <v>8</v>
       </c>
       <c r="I311" s="5">
-        <f t="shared" ref="I311:I315" si="99">G311-H311</f>
+        <f t="shared" ref="I311:I315" si="85">G311-H311</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B312" s="2">
-        <f t="shared" si="96"/>
-        <v>-663</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="19">
@@ -7742,21 +8207,21 @@
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
       <c r="G312" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="H312" s="14">
         <v>8</v>
       </c>
       <c r="I312" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="85"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B313" s="2">
-        <f t="shared" si="96"/>
-        <v>-671</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="19">
@@ -7765,21 +8230,21 @@
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
       <c r="G313" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="H313" s="14">
         <v>8</v>
       </c>
       <c r="I313" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="85"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B314" s="2">
-        <f t="shared" si="96"/>
-        <v>-679</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="19">
@@ -7788,21 +8253,21 @@
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
       <c r="G314" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="H314" s="1">
         <v>8</v>
       </c>
       <c r="I314" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="85"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B315" s="2">
-        <f t="shared" si="96"/>
-        <v>-679</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="20">
@@ -7811,18 +8276,18 @@
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
       <c r="G315" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="I315" s="5">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B316" s="2">
-        <f t="shared" si="96"/>
-        <v>-679</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="20">
@@ -7831,10 +8296,10 @@
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
     </row>
-    <row r="317" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="12">
-        <f t="shared" si="96"/>
-        <v>-679</v>
+    <row r="317" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B317" s="2">
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C317" s="12"/>
       <c r="D317" s="23">
@@ -7843,7 +8308,7 @@
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
       <c r="J317" s="8">
-        <f t="shared" ref="J317" si="100">SUM(I311:I315)</f>
+        <f t="shared" ref="J317" si="86">SUM(I311:I315)</f>
         <v>-32</v>
       </c>
       <c r="K317" s="17"/>
@@ -7851,10 +8316,10 @@
       <c r="M317" s="17"/>
       <c r="N317" s="17"/>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B318" s="2">
-        <f t="shared" si="96"/>
-        <v>-687</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="19">
@@ -7863,21 +8328,21 @@
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
       <c r="G318" s="5">
-        <f t="shared" ref="G318:G322" si="101">F318+E318</f>
+        <f t="shared" ref="G318:G322" si="87">F318+E318</f>
         <v>0</v>
       </c>
       <c r="H318" s="14">
         <v>8</v>
       </c>
       <c r="I318" s="5">
-        <f t="shared" ref="I318:I322" si="102">G318-H318</f>
+        <f t="shared" ref="I318:I322" si="88">G318-H318</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B319" s="2">
-        <f t="shared" si="96"/>
-        <v>-695</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="19">
@@ -7886,21 +8351,21 @@
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
       <c r="G319" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H319" s="1">
         <v>8</v>
       </c>
       <c r="I319" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="88"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B320" s="2">
-        <f t="shared" si="96"/>
-        <v>-703</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="19">
@@ -7909,21 +8374,21 @@
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
       <c r="G320" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H320" s="1">
         <v>8</v>
       </c>
       <c r="I320" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="88"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B321" s="2">
-        <f t="shared" si="96"/>
-        <v>-711</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="19">
@@ -7932,21 +8397,21 @@
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
       <c r="G321" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H321" s="1">
         <v>8</v>
       </c>
       <c r="I321" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="88"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B322" s="2">
-        <f t="shared" si="96"/>
-        <v>-719</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="19">
@@ -7955,21 +8420,21 @@
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
       <c r="G322" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H322" s="1">
         <v>8</v>
       </c>
       <c r="I322" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="88"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B323" s="2">
-        <f t="shared" si="96"/>
-        <v>-727</v>
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="19">
@@ -7981,10 +8446,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B324" s="12">
-        <f t="shared" si="96"/>
-        <v>-735</v>
+    <row r="324" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B324" s="2">
+        <f t="shared" si="65"/>
+        <v>33</v>
       </c>
       <c r="C324" s="12"/>
       <c r="D324" s="22">
@@ -7996,7 +8461,7 @@
         <v>8</v>
       </c>
       <c r="J324" s="8">
-        <f t="shared" ref="J324" si="103">SUM(I318:I322)</f>
+        <f t="shared" ref="J324" si="89">SUM(I318:I322)</f>
         <v>-40</v>
       </c>
       <c r="K324" s="17"/>
@@ -8004,10 +8469,10 @@
       <c r="M324" s="17"/>
       <c r="N324" s="17"/>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B325" s="2">
-        <f t="shared" si="96"/>
-        <v>-743</v>
+        <f t="shared" ref="B325:B368" si="90">B324+G324</f>
+        <v>33</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="19">
@@ -8016,21 +8481,21 @@
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
       <c r="G325" s="5">
-        <f t="shared" ref="G325:G329" si="104">F325+E325</f>
+        <f t="shared" ref="G325:G329" si="91">F325+E325</f>
         <v>0</v>
       </c>
       <c r="H325" s="14">
         <v>8</v>
       </c>
       <c r="I325" s="5">
-        <f t="shared" ref="I325:I329" si="105">G325-H325</f>
+        <f t="shared" ref="I325:I329" si="92">G325-H325</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B326" s="2">
-        <f t="shared" si="96"/>
-        <v>-751</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="19">
@@ -8039,21 +8504,21 @@
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
       <c r="G326" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="H326" s="14">
         <v>8</v>
       </c>
       <c r="I326" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="92"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B327" s="2">
-        <f t="shared" si="96"/>
-        <v>-759</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="19">
@@ -8062,21 +8527,21 @@
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
       <c r="G327" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="H327" s="14">
         <v>8</v>
       </c>
       <c r="I327" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="92"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B328" s="2">
-        <f t="shared" si="96"/>
-        <v>-759</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="19">
@@ -8085,18 +8550,18 @@
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
       <c r="G328" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="I328" s="5">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B329" s="2">
-        <f t="shared" si="96"/>
-        <v>-763</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="19">
@@ -8105,24 +8570,24 @@
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
       <c r="G329" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="H329" s="1">
         <v>4</v>
       </c>
       <c r="I329" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="92"/>
         <v>-4</v>
       </c>
       <c r="K329" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B330" s="2">
-        <f t="shared" si="96"/>
-        <v>-763</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="19">
@@ -8132,10 +8597,10 @@
       <c r="F330" s="5"/>
       <c r="H330" s="14"/>
     </row>
-    <row r="331" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B331" s="12">
-        <f t="shared" si="96"/>
-        <v>-763</v>
+    <row r="331" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B331" s="2">
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C331" s="12"/>
       <c r="D331" s="22">
@@ -8144,7 +8609,7 @@
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
       <c r="J331" s="8">
-        <f t="shared" ref="J331" si="106">SUM(I325:I329)</f>
+        <f t="shared" ref="J331" si="93">SUM(I325:I329)</f>
         <v>-28</v>
       </c>
       <c r="K331" s="17"/>
@@ -8152,10 +8617,10 @@
       <c r="M331" s="17"/>
       <c r="N331" s="17"/>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B332" s="2">
-        <f t="shared" si="96"/>
-        <v>-763</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="19">
@@ -8164,19 +8629,19 @@
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
       <c r="G332" s="5">
-        <f t="shared" ref="G332:G336" si="107">F332+E332</f>
+        <f t="shared" ref="G332:G336" si="94">F332+E332</f>
         <v>0</v>
       </c>
       <c r="H332" s="14"/>
       <c r="I332" s="5">
-        <f t="shared" ref="I332:I336" si="108">G332-H332</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I332:I336" si="95">G332-H332</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B333" s="2">
-        <f>B332+G333-H333</f>
-        <v>-763</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="19">
@@ -8185,19 +8650,19 @@
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
       <c r="G333" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="H333" s="14"/>
       <c r="I333" s="5">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B334" s="2">
-        <f t="shared" si="96"/>
-        <v>-763</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" s="19">
@@ -8206,19 +8671,19 @@
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
       <c r="G334" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="H334" s="14"/>
       <c r="I334" s="5">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B335" s="2">
-        <f t="shared" si="96"/>
-        <v>-771</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="19">
@@ -8227,22 +8692,22 @@
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
       <c r="G335" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="H335" s="14">
         <v>8</v>
       </c>
       <c r="I335" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="95"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A336" s="4"/>
       <c r="B336" s="2">
-        <f t="shared" si="96"/>
-        <v>-779</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" s="19">
@@ -8251,22 +8716,22 @@
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
       <c r="G336" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="H336" s="1">
         <v>8</v>
       </c>
       <c r="I336" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="95"/>
         <v>-8</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A337" s="4"/>
       <c r="B337" s="2">
-        <f t="shared" si="96"/>
-        <v>-787</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="19">
@@ -8278,11 +8743,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A338" s="12"/>
-      <c r="B338" s="12">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+      <c r="B338" s="2">
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C338" s="12"/>
       <c r="D338" s="22">
@@ -8302,11 +8767,11 @@
       <c r="M338" s="17"/>
       <c r="N338" s="17"/>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A339" s="2"/>
       <c r="B339" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="19">
@@ -8315,22 +8780,22 @@
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
       <c r="G339" s="5">
-        <f t="shared" ref="G339:G343" si="109">F339+E339</f>
+        <f t="shared" ref="G339:G343" si="96">F339+E339</f>
         <v>0</v>
       </c>
       <c r="H339" s="14"/>
       <c r="I339" s="5">
-        <f t="shared" ref="I339:I343" si="110">G339-H339</f>
+        <f t="shared" ref="I339:I343" si="97">G339-H339</f>
         <v>0</v>
       </c>
       <c r="K339" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B340" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="19">
@@ -8339,21 +8804,21 @@
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
       <c r="G340" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I340" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="K340" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B341" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="19">
@@ -8362,21 +8827,21 @@
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
       <c r="G341" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I341" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="K341" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B342" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="19">
@@ -8385,21 +8850,21 @@
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
       <c r="G342" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I342" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="K342" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B343" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="19">
@@ -8408,21 +8873,21 @@
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
       <c r="G343" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I343" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="K343" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B344" s="2">
-        <f>B343+G344-H344</f>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="19">
@@ -8434,10 +8899,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="12">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+    <row r="345" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B345" s="2">
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C345" s="12"/>
       <c r="D345" s="22">
@@ -8454,10 +8919,10 @@
       <c r="M345" s="17"/>
       <c r="N345" s="17"/>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B346" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="19">
@@ -8466,19 +8931,19 @@
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
       <c r="G346" s="5">
-        <f t="shared" ref="G346:G350" si="111">F346+E346</f>
+        <f t="shared" ref="G346:G350" si="98">F346+E346</f>
         <v>0</v>
       </c>
       <c r="H346" s="14"/>
       <c r="I346" s="5">
-        <f t="shared" ref="I346:I350" si="112">G346-H346</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I346:I350" si="99">G346-H346</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B347" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="19">
@@ -8487,18 +8952,18 @@
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
       <c r="G347" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="I347" s="5">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B348" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="19">
@@ -8507,18 +8972,18 @@
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
       <c r="G348" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="I348" s="5">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B349" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="19">
@@ -8527,18 +8992,18 @@
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
       <c r="G349" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="I349" s="5">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B350" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="19">
@@ -8547,18 +9012,18 @@
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
       <c r="G350" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="I350" s="5">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B351" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="19">
@@ -8567,10 +9032,10 @@
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
     </row>
-    <row r="352" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B352" s="12">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+    <row r="352" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B352" s="2">
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C352" s="12"/>
       <c r="D352" s="22">
@@ -8579,7 +9044,7 @@
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
       <c r="J352" s="8">
-        <f t="shared" ref="J352" si="113">SUM(I346:I350)</f>
+        <f t="shared" ref="J352" si="100">SUM(I346:I350)</f>
         <v>0</v>
       </c>
       <c r="K352" s="17"/>
@@ -8587,10 +9052,10 @@
       <c r="M352" s="17"/>
       <c r="N352" s="17"/>
     </row>
-    <row r="353" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B353" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="19">
@@ -8599,19 +9064,19 @@
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
       <c r="G353" s="5">
-        <f t="shared" ref="G353:G357" si="114">F353+E353</f>
+        <f t="shared" ref="G353:G357" si="101">F353+E353</f>
         <v>0</v>
       </c>
       <c r="H353" s="14"/>
       <c r="I353" s="5">
-        <f t="shared" ref="I353:I357" si="115">G353-H353</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I353:I357" si="102">G353-H353</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B354" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" s="19">
@@ -8620,18 +9085,18 @@
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
       <c r="G354" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="I354" s="5">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B355" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" s="19">
@@ -8640,18 +9105,18 @@
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
       <c r="G355" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="I355" s="5">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B356" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="19">
@@ -8660,18 +9125,18 @@
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
       <c r="G356" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="I356" s="5">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B357" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="19">
@@ -8680,18 +9145,18 @@
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
       <c r="G357" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="I357" s="5">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B358" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="19">
@@ -8700,10 +9165,10 @@
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
     </row>
-    <row r="359" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B359" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="19">
@@ -8716,10 +9181,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B360" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="19">
@@ -8728,19 +9193,19 @@
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
       <c r="G360" s="5">
-        <f t="shared" ref="G360:G364" si="116">F360+E360</f>
+        <f t="shared" ref="G360:G364" si="103">F360+E360</f>
         <v>0</v>
       </c>
       <c r="H360" s="14"/>
       <c r="I360" s="5">
-        <f t="shared" ref="I360:I364" si="117">G360-H360</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I360:I364" si="104">G360-H360</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B361" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="19">
@@ -8749,18 +9214,18 @@
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
       <c r="G361" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="I361" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B362" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="19">
@@ -8769,18 +9234,18 @@
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
       <c r="G362" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="I362" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B363" s="2">
-        <f>B362+G363-H363</f>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="19">
@@ -8789,18 +9254,18 @@
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
       <c r="G363" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="I363" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B364" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="19">
@@ -8809,18 +9274,18 @@
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
       <c r="G364" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="I364" s="5">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B365" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="19">
@@ -8829,10 +9294,10 @@
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
     </row>
-    <row r="366" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B366" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="19">
@@ -8845,10 +9310,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B367" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="D367" s="19">
         <v>43724</v>
@@ -8864,16 +9329,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B368" s="2">
-        <f t="shared" si="96"/>
-        <v>-793</v>
+        <f t="shared" si="90"/>
+        <v>33</v>
       </c>
       <c r="D368" s="19">
         <v>43725</v>
       </c>
     </row>
-    <row r="370" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H370" s="1">
         <f>SUM(H3:H368)</f>
         <v>810</v>
@@ -8881,140 +9346,140 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D368">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="34" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9 I10:I366 I1:I8">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93 J100 J107 J121 J114 J128 J135 J142 J149 J156 J163 J170 J177 J184 J191 J198 J205 J212 J219 J226 J233 J240 J247 J254 J261 J268 J275 J289 J282 J296 J303 J310 J324 J317 J331 J338 J345 J352 J359 J366">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A123 A274:A277 A153:A156 A183:A186 A214:A217 A245:A248 A306:A309 A336:A339 A33:A48 A66:A95 A50:A64 C1:C366 A1:A31">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I367">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576 H13:H14">
-    <cfRule type="top10" dxfId="0" priority="3" percent="1" rank="10"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="top10" dxfId="34" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\MSE\MA-Smartventil\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DAB105-81D6-4D2F-9BC9-06DD5CE12614}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2098834B-0020-4A77-8C14-B4E772740BDC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>Tag</t>
   </si>
@@ -87,7 +92,10 @@
     <t>Meeting VAT, Recherche,  Zeitplan, Mindmap</t>
   </si>
   <si>
-    <t>Protokolle im Vergleich</t>
+    <t>Protokolle im Vergleich, Aufsetzen SVN + RabbitMQ, Downloads für MQTT Java, C, Python</t>
+  </si>
+  <si>
+    <t>CrateDB Sitzung, Protokolle im Vergleich</t>
   </si>
 </sst>
 </file>
@@ -261,352 +269,7 @@
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1231,7 +894,7 @@
   <dimension ref="A1:R370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1964,7 +1627,9 @@
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="K28" s="11"/>
+      <c r="K28" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -9346,140 +9011,140 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D368">
-    <cfRule type="cellIs" dxfId="67" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9 I10:I366 I1:I8">
-    <cfRule type="cellIs" dxfId="66" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="64" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="62" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="60" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="58" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="56" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" dxfId="54" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58">
-    <cfRule type="cellIs" dxfId="52" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65">
-    <cfRule type="cellIs" dxfId="50" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="48" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79">
-    <cfRule type="cellIs" dxfId="46" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86">
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93 J100 J107 J121 J114 J128 J135 J142 J149 J156 J163 J170 J177 J184 J191 J198 J205 J212 J219 J226 J233 J240 J247 J254 J261 J268 J275 J289 J282 J296 J303 J310 J324 J317 J331 J338 J345 J352 J359 J366">
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A123 A274:A277 A153:A156 A183:A186 A214:A217 A245:A248 A306:A309 A336:A339 A33:A48 A66:A95 A50:A64 C1:C366 A1:A31">
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I367">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="top10" dxfId="34" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="0" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\MSE\MA-Smartventil\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zohan\Documents\MSE\ma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DAB105-81D6-4D2F-9BC9-06DD5CE12614}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B5F00961-7DB4-46E4-9AD8-F802FA88AD8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>Tag</t>
   </si>
@@ -87,7 +87,13 @@
     <t>Meeting VAT, Recherche,  Zeitplan, Mindmap</t>
   </si>
   <si>
-    <t>Protokolle im Vergleich</t>
+    <t>Protokolle im Vergleich, SVN, RabbitMQ, MQTT(Java,C,Python)</t>
+  </si>
+  <si>
+    <t>Besprechung CrateIO, Protokolle</t>
+  </si>
+  <si>
+    <t>Besprechung</t>
   </si>
 </sst>
 </file>
@@ -261,352 +267,7 @@
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1231,23 +892,23 @@
   <dimension ref="A1:R370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="11" style="1"/>
-    <col min="11" max="11" width="80.1328125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="80.140625" style="15" customWidth="1"/>
     <col min="12" max="13" width="11" style="15"/>
-    <col min="14" max="14" width="12.59765625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="15" customWidth="1"/>
     <col min="15" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1279,7 +940,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1289,7 +950,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2">
         <v>0</v>
@@ -1313,7 +974,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <f>B3+G3</f>
@@ -1338,7 +999,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <f t="shared" ref="B5:B68" si="2">B4+G4</f>
@@ -1367,7 +1028,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="2">
         <f t="shared" si="2"/>
@@ -1396,7 +1057,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="2">
         <f t="shared" si="2"/>
@@ -1425,7 +1086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <f t="shared" si="2"/>
@@ -1444,7 +1105,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="2">
         <f t="shared" si="2"/>
@@ -1466,7 +1127,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="2">
         <f t="shared" si="2"/>
@@ -1491,7 +1152,7 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="2">
         <f t="shared" si="2"/>
@@ -1516,7 +1177,7 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="2">
         <f t="shared" si="2"/>
@@ -1541,7 +1202,7 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="2">
         <f t="shared" si="2"/>
@@ -1575,7 +1236,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="2">
         <f t="shared" si="2"/>
@@ -1609,7 +1270,7 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <f t="shared" si="2"/>
@@ -1628,7 +1289,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="2">
         <f t="shared" si="2"/>
@@ -1651,7 +1312,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1674,7 +1335,7 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="2">
         <f t="shared" si="2"/>
@@ -1700,7 +1361,7 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="2">
         <f t="shared" si="2"/>
@@ -1726,7 +1387,7 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="2">
         <f t="shared" si="2"/>
@@ -1760,7 +1421,7 @@
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="2">
         <f t="shared" si="2"/>
@@ -1794,7 +1455,7 @@
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="2">
         <f t="shared" si="2"/>
@@ -1813,7 +1474,7 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="2">
         <f t="shared" si="2"/>
@@ -1836,7 +1497,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="2">
         <f t="shared" si="2"/>
@@ -1861,7 +1522,7 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="2">
         <f t="shared" si="2"/>
@@ -1886,7 +1547,7 @@
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="2">
         <f t="shared" si="2"/>
@@ -1911,7 +1572,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
         <f t="shared" si="2"/>
@@ -1921,18 +1582,22 @@
       <c r="D27" s="19">
         <v>43384</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="5">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5">
+        <v>5</v>
+      </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H27" s="1">
         <v>8</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>20</v>
@@ -1941,39 +1606,45 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="19">
         <v>43385</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="E28" s="5">
+        <v>4</v>
+      </c>
+      <c r="F28" s="5">
+        <v>4</v>
+      </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H28" s="1">
         <v>8</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-      <c r="K28" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="19">
@@ -1988,11 +1659,11 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="22">
@@ -2004,18 +1675,18 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8">
         <f>SUM(I24:I28)</f>
-        <v>-16</v>
+        <v>1</v>
       </c>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="19">
@@ -2036,10 +1707,10 @@
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="19">
@@ -2059,36 +1730,40 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="19">
         <v>43390</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
       <c r="G33" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="19">
@@ -2112,11 +1787,11 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="19">
@@ -2140,11 +1815,11 @@
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="19">
@@ -2159,11 +1834,11 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="22">
@@ -2175,18 +1850,18 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8">
         <f>SUM(I31:I35)</f>
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="19">
@@ -2207,11 +1882,11 @@
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="19">
@@ -2232,11 +1907,11 @@
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="19">
@@ -2257,11 +1932,11 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="19">
@@ -2285,11 +1960,11 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="25">
@@ -2312,11 +1987,11 @@
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="20">
@@ -2333,11 +2008,11 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="23">
@@ -2358,11 +2033,11 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="20">
@@ -2385,11 +2060,11 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="20">
@@ -2412,11 +2087,11 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="20">
@@ -2439,11 +2114,11 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="20">
@@ -2466,10 +2141,10 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="20">
@@ -2492,11 +2167,11 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="20">
@@ -2513,11 +2188,11 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="23">
@@ -2538,11 +2213,11 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="19">
@@ -2563,11 +2238,11 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="19">
@@ -2588,11 +2263,11 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="19">
@@ -2613,11 +2288,11 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="19">
@@ -2641,11 +2316,11 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="19">
@@ -2669,11 +2344,11 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="19">
@@ -2688,11 +2363,11 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="22">
@@ -2711,11 +2386,11 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="19">
@@ -2736,11 +2411,11 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="19">
@@ -2761,11 +2436,11 @@
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="19">
@@ -2786,11 +2461,11 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="19">
@@ -2814,11 +2489,11 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="19">
@@ -2842,11 +2517,11 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="19">
@@ -2861,10 +2536,10 @@
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="22">
@@ -2883,11 +2558,11 @@
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="19">
@@ -2908,11 +2583,11 @@
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="19">
@@ -2933,11 +2608,11 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="2">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="19">
@@ -2958,11 +2633,11 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="2">
         <f t="shared" ref="B69:B132" si="5">B68+G68</f>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="19">
@@ -2986,11 +2661,11 @@
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="19">
@@ -3014,11 +2689,11 @@
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="19">
@@ -3039,11 +2714,11 @@
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="22">
@@ -3062,11 +2737,11 @@
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="19">
@@ -3087,11 +2762,11 @@
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="19">
@@ -3112,11 +2787,11 @@
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="19">
@@ -3137,11 +2812,11 @@
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="19">
@@ -3165,11 +2840,11 @@
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="19">
@@ -3193,11 +2868,11 @@
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="19">
@@ -3212,11 +2887,11 @@
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="22">
@@ -3235,11 +2910,11 @@
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="19">
@@ -3260,11 +2935,11 @@
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="19">
@@ -3285,11 +2960,11 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="19">
@@ -3310,11 +2985,11 @@
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="19">
@@ -3338,11 +3013,11 @@
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="19">
@@ -3366,11 +3041,11 @@
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="19">
@@ -3385,11 +3060,11 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="22">
@@ -3408,11 +3083,11 @@
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="19">
@@ -3434,11 +3109,11 @@
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="19">
@@ -3459,11 +3134,11 @@
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="19">
@@ -3484,11 +3159,11 @@
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="19">
@@ -3512,11 +3187,11 @@
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="19">
@@ -3540,11 +3215,11 @@
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="19">
@@ -3557,11 +3232,11 @@
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
     </row>
-    <row r="93" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="22">
@@ -3578,11 +3253,11 @@
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="19">
@@ -3604,11 +3279,11 @@
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="19">
@@ -3629,10 +3304,10 @@
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="19">
@@ -3649,10 +3324,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="19">
@@ -3672,10 +3347,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="19">
@@ -3699,10 +3374,10 @@
       <c r="M98" s="16"/>
       <c r="N98" s="16"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="19">
@@ -3711,10 +3386,10 @@
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="22">
@@ -3731,10 +3406,10 @@
       <c r="M100" s="17"/>
       <c r="N100" s="17"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="20">
@@ -3758,10 +3433,10 @@
       <c r="M101" s="16"/>
       <c r="N101" s="16"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="20">
@@ -3784,10 +3459,10 @@
       <c r="M102" s="16"/>
       <c r="N102" s="16"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="20">
@@ -3807,10 +3482,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="20">
@@ -3830,10 +3505,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="20">
@@ -3853,10 +3528,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="20">
@@ -3868,10 +3543,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="23">
@@ -3890,10 +3565,10 @@
       <c r="M107" s="17"/>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="20">
@@ -3914,10 +3589,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="20">
@@ -3940,10 +3615,10 @@
       <c r="M109" s="16"/>
       <c r="N109" s="16"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="20">
@@ -3966,10 +3641,10 @@
       <c r="M110" s="16"/>
       <c r="N110" s="16"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="20">
@@ -3989,10 +3664,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="20">
@@ -4015,10 +3690,10 @@
       <c r="M112" s="16"/>
       <c r="N112" s="16"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="20">
@@ -4030,10 +3705,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C114" s="12"/>
       <c r="D114" s="23">
@@ -4052,10 +3727,10 @@
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="20">
@@ -4079,10 +3754,10 @@
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="20">
@@ -4105,10 +3780,10 @@
       <c r="M116" s="16"/>
       <c r="N116" s="16"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="20">
@@ -4128,11 +3803,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="20">
@@ -4152,10 +3827,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B119" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="20">
@@ -4178,11 +3853,11 @@
       <c r="M119" s="16"/>
       <c r="N119" s="16"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="20">
@@ -4191,11 +3866,11 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C121" s="12"/>
       <c r="D121" s="23">
@@ -4212,11 +3887,11 @@
       <c r="M121" s="17"/>
       <c r="N121" s="17"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="19">
@@ -4238,11 +3913,11 @@
       <c r="M122" s="16"/>
       <c r="N122" s="16"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="19">
@@ -4263,10 +3938,10 @@
       <c r="M123" s="16"/>
       <c r="N123" s="16"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B124" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="19">
@@ -4283,10 +3958,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B125" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="19">
@@ -4306,10 +3981,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B126" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="19">
@@ -4333,10 +4008,10 @@
       <c r="M126" s="16"/>
       <c r="N126" s="16"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B127" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="19">
@@ -4345,10 +4020,10 @@
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C128" s="12"/>
       <c r="D128" s="22">
@@ -4365,10 +4040,10 @@
       <c r="M128" s="17"/>
       <c r="N128" s="17"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="19">
@@ -4386,10 +4061,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="19">
@@ -4410,10 +4085,10 @@
       <c r="M130" s="16"/>
       <c r="N130" s="16"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="19">
@@ -4430,10 +4105,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="19">
@@ -4453,10 +4128,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="2">
         <f t="shared" ref="B133:B196" si="22">B132+G132</f>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="19">
@@ -4480,10 +4155,10 @@
       <c r="M133" s="16"/>
       <c r="N133" s="16"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="19">
@@ -4492,10 +4167,10 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C135" s="12"/>
       <c r="D135" s="22">
@@ -4512,10 +4187,10 @@
       <c r="M135" s="17"/>
       <c r="N135" s="17"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="19">
@@ -4537,10 +4212,10 @@
       <c r="M136" s="16"/>
       <c r="N136" s="16"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="19">
@@ -4561,10 +4236,10 @@
       <c r="M137" s="16"/>
       <c r="N137" s="16"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="19">
@@ -4581,10 +4256,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="19">
@@ -4604,10 +4279,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="19">
@@ -4631,10 +4306,10 @@
       <c r="M140" s="16"/>
       <c r="N140" s="21"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="19">
@@ -4643,10 +4318,10 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C142" s="12"/>
       <c r="D142" s="22">
@@ -4663,10 +4338,10 @@
       <c r="M142" s="17"/>
       <c r="N142" s="17"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="19">
@@ -4688,10 +4363,10 @@
       <c r="M143" s="16"/>
       <c r="N143" s="16"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="19">
@@ -4712,10 +4387,10 @@
       <c r="M144" s="16"/>
       <c r="N144" s="16"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B145" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="19">
@@ -4732,10 +4407,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B146" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="19">
@@ -4755,10 +4430,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B147" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="19">
@@ -4778,10 +4453,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B148" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="19">
@@ -4790,10 +4465,10 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C149" s="12"/>
       <c r="D149" s="22">
@@ -4810,11 +4485,11 @@
       <c r="M149" s="17"/>
       <c r="N149" s="17"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="19">
@@ -4836,10 +4511,10 @@
       <c r="M150" s="16"/>
       <c r="N150" s="16"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B151" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="19">
@@ -4860,10 +4535,10 @@
       <c r="M151" s="16"/>
       <c r="N151" s="16"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B152" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="19">
@@ -4884,11 +4559,11 @@
       <c r="M152" s="16"/>
       <c r="N152" s="16"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="19">
@@ -4908,11 +4583,11 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="19">
@@ -4936,11 +4611,11 @@
       <c r="M154" s="16"/>
       <c r="N154" s="16"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="19">
@@ -4949,11 +4624,11 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C156" s="12"/>
       <c r="D156" s="22">
@@ -4970,10 +4645,10 @@
       <c r="M156" s="17"/>
       <c r="N156" s="17"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B157" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="19">
@@ -4990,10 +4665,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B158" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="19">
@@ -5012,10 +4687,10 @@
       <c r="K158" s="16"/>
       <c r="L158" s="16"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B159" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="19">
@@ -5032,10 +4707,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B160" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="19">
@@ -5055,10 +4730,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="19">
@@ -5078,10 +4753,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="19">
@@ -5090,10 +4765,10 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C163" s="12"/>
       <c r="D163" s="22">
@@ -5110,10 +4785,10 @@
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="19">
@@ -5131,10 +4806,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="19">
@@ -5151,10 +4826,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="19">
@@ -5171,10 +4846,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="19">
@@ -5194,10 +4869,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="19">
@@ -5217,10 +4892,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="19">
@@ -5229,10 +4904,10 @@
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
     </row>
-    <row r="170" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C170" s="12"/>
       <c r="D170" s="22">
@@ -5249,10 +4924,10 @@
       <c r="M170" s="17"/>
       <c r="N170" s="17"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="19">
@@ -5270,10 +4945,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="19">
@@ -5290,10 +4965,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="19">
@@ -5310,10 +4985,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="19">
@@ -5333,10 +5008,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="19">
@@ -5356,10 +5031,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="19">
@@ -5368,10 +5043,10 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
     </row>
-    <row r="177" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B177" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C177" s="12"/>
       <c r="D177" s="22">
@@ -5388,10 +5063,10 @@
       <c r="M177" s="17"/>
       <c r="N177" s="17"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B178" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="19">
@@ -5409,10 +5084,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B179" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="19">
@@ -5429,10 +5104,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B180" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="19">
@@ -5449,10 +5124,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B181" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="19">
@@ -5472,10 +5147,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B182" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="19">
@@ -5495,11 +5170,11 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="19">
@@ -5508,11 +5183,11 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
       <c r="B184" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C184" s="12"/>
       <c r="D184" s="22">
@@ -5529,11 +5204,11 @@
       <c r="M184" s="17"/>
       <c r="N184" s="17"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="19">
@@ -5551,11 +5226,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="19">
@@ -5572,10 +5247,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B187" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="19">
@@ -5592,10 +5267,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B188" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="19">
@@ -5615,10 +5290,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B189" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="19">
@@ -5638,10 +5313,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B190" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="19">
@@ -5650,10 +5325,10 @@
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
     </row>
-    <row r="191" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B191" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C191" s="12"/>
       <c r="D191" s="22">
@@ -5670,10 +5345,10 @@
       <c r="M191" s="17"/>
       <c r="N191" s="17"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B192" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="19">
@@ -5691,10 +5366,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="19">
@@ -5711,10 +5386,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="19">
@@ -5735,10 +5410,10 @@
       <c r="M194" s="16"/>
       <c r="N194" s="16"/>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="19">
@@ -5762,10 +5437,10 @@
       <c r="M195" s="16"/>
       <c r="N195" s="16"/>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="2">
         <f t="shared" si="22"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="19">
@@ -5789,10 +5464,10 @@
       <c r="M196" s="16"/>
       <c r="N196" s="16"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="2">
         <f t="shared" ref="B197:B260" si="44">B196+G196</f>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="19">
@@ -5801,10 +5476,10 @@
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C198" s="12"/>
       <c r="D198" s="22">
@@ -5821,10 +5496,10 @@
       <c r="M198" s="17"/>
       <c r="N198" s="17"/>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="19">
@@ -5846,10 +5521,10 @@
       <c r="M199" s="16"/>
       <c r="N199" s="16"/>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="19">
@@ -5870,10 +5545,10 @@
       <c r="M200" s="16"/>
       <c r="N200" s="21"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="19">
@@ -5894,10 +5569,10 @@
       <c r="M201" s="16"/>
       <c r="N201" s="16"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="19">
@@ -5921,10 +5596,10 @@
       <c r="M202" s="16"/>
       <c r="N202" s="16"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="19">
@@ -5948,10 +5623,10 @@
       <c r="M203" s="16"/>
       <c r="N203" s="16"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="19">
@@ -5960,10 +5635,10 @@
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
     </row>
-    <row r="205" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C205" s="12"/>
       <c r="D205" s="22">
@@ -5980,10 +5655,10 @@
       <c r="M205" s="17"/>
       <c r="N205" s="17"/>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="19">
@@ -6001,10 +5676,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="19">
@@ -6021,10 +5696,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="19">
@@ -6041,10 +5716,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B209" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="19">
@@ -6064,10 +5739,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B210" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="19">
@@ -6087,10 +5762,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B211" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="19">
@@ -6100,10 +5775,10 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C212" s="12"/>
       <c r="D212" s="22">
@@ -6121,10 +5796,10 @@
       <c r="M212" s="17"/>
       <c r="N212" s="17"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B213" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="19">
@@ -6142,11 +5817,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="19">
@@ -6163,11 +5838,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="19">
@@ -6184,11 +5859,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="19">
@@ -6208,11 +5883,11 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="19">
@@ -6232,10 +5907,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B218" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="19">
@@ -6245,10 +5920,10 @@
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B219" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C219" s="12"/>
       <c r="D219" s="22">
@@ -6266,10 +5941,10 @@
       <c r="M219" s="17"/>
       <c r="N219" s="17"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B220" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="19">
@@ -6287,10 +5962,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B221" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="19">
@@ -6307,10 +5982,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B222" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="19">
@@ -6327,10 +6002,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B223" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="19">
@@ -6350,10 +6025,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B224" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="19">
@@ -6373,10 +6048,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B225" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="19">
@@ -6385,10 +6060,10 @@
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
     </row>
-    <row r="226" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B226" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C226" s="12"/>
       <c r="D226" s="22">
@@ -6405,10 +6080,10 @@
       <c r="M226" s="17"/>
       <c r="N226" s="17"/>
     </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B227" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="19">
@@ -6430,10 +6105,10 @@
       <c r="M227" s="16"/>
       <c r="N227" s="16"/>
     </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B228" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="19">
@@ -6454,10 +6129,10 @@
       <c r="M228" s="16"/>
       <c r="N228" s="16"/>
     </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B229" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="19">
@@ -6478,10 +6153,10 @@
       <c r="M229" s="16"/>
       <c r="N229" s="16"/>
     </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B230" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="19">
@@ -6505,10 +6180,10 @@
       <c r="M230" s="16"/>
       <c r="N230" s="16"/>
     </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B231" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="19">
@@ -6532,10 +6207,10 @@
       <c r="M231" s="16"/>
       <c r="N231" s="16"/>
     </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B232" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="19">
@@ -6544,10 +6219,10 @@
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
     </row>
-    <row r="233" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B233" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C233" s="12"/>
       <c r="D233" s="22">
@@ -6564,10 +6239,10 @@
       <c r="M233" s="17"/>
       <c r="N233" s="17"/>
     </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B234" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="19">
@@ -6589,10 +6264,10 @@
       <c r="M234" s="16"/>
       <c r="N234" s="16"/>
     </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B235" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="19">
@@ -6613,10 +6288,10 @@
       <c r="M235" s="16"/>
       <c r="N235" s="16"/>
     </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B236" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="19">
@@ -6637,10 +6312,10 @@
       <c r="M236" s="16"/>
       <c r="N236" s="16"/>
     </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B237" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="19">
@@ -6664,10 +6339,10 @@
       <c r="M237" s="16"/>
       <c r="N237" s="16"/>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B238" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="19">
@@ -6691,10 +6366,10 @@
       <c r="M238" s="16"/>
       <c r="N238" s="16"/>
     </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B239" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="19">
@@ -6703,10 +6378,10 @@
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
     </row>
-    <row r="240" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B240" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C240" s="12"/>
       <c r="D240" s="22">
@@ -6723,10 +6398,10 @@
       <c r="M240" s="17"/>
       <c r="N240" s="17"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B241" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="19">
@@ -6748,10 +6423,10 @@
       <c r="M241" s="16"/>
       <c r="N241" s="16"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B242" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="19">
@@ -6772,10 +6447,10 @@
       <c r="M242" s="16"/>
       <c r="N242" s="16"/>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B243" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="19">
@@ -6796,10 +6471,10 @@
       <c r="M243" s="16"/>
       <c r="N243" s="16"/>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B244" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="19">
@@ -6823,11 +6498,11 @@
       <c r="M244" s="16"/>
       <c r="N244" s="16"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="19">
@@ -6847,11 +6522,11 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="19">
@@ -6860,11 +6535,11 @@
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
     </row>
-    <row r="247" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
       <c r="B247" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C247" s="12"/>
       <c r="D247" s="22">
@@ -6881,11 +6556,11 @@
       <c r="M247" s="17"/>
       <c r="N247" s="17"/>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="19">
@@ -6907,10 +6582,10 @@
       <c r="M248" s="16"/>
       <c r="N248" s="16"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B249" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="19">
@@ -6931,10 +6606,10 @@
       <c r="M249" s="16"/>
       <c r="N249" s="16"/>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B250" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="19">
@@ -6955,10 +6630,10 @@
       <c r="M250" s="16"/>
       <c r="N250" s="21"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B251" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="19">
@@ -6978,10 +6653,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B252" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="19">
@@ -7001,10 +6676,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B253" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="19">
@@ -7013,10 +6688,10 @@
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
     </row>
-    <row r="254" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B254" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C254" s="12"/>
       <c r="D254" s="22">
@@ -7033,10 +6708,10 @@
       <c r="M254" s="17"/>
       <c r="N254" s="17"/>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B255" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="19">
@@ -7054,10 +6729,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B256" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="19">
@@ -7074,10 +6749,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B257" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="19">
@@ -7094,10 +6769,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B258" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="19">
@@ -7117,10 +6792,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="259" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="259" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B259" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="19">
@@ -7140,10 +6815,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="260" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="260" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B260" s="2">
         <f t="shared" si="44"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="19">
@@ -7152,10 +6827,10 @@
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
     </row>
-    <row r="261" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B261" s="2">
         <f t="shared" ref="B261:B324" si="65">B260+G260</f>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C261" s="12"/>
       <c r="D261" s="22">
@@ -7172,10 +6847,10 @@
       <c r="M261" s="17"/>
       <c r="N261" s="17"/>
     </row>
-    <row r="262" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="262" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B262" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="19">
@@ -7193,10 +6868,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="263" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B263" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="19">
@@ -7214,10 +6889,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B264" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="19">
@@ -7234,10 +6909,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="265" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B265" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="19">
@@ -7257,10 +6932,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="266" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="266" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B266" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="19">
@@ -7280,10 +6955,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="267" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B267" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="19">
@@ -7292,10 +6967,10 @@
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
     </row>
-    <row r="268" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B268" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C268" s="12"/>
       <c r="D268" s="22">
@@ -7312,10 +6987,10 @@
       <c r="M268" s="17"/>
       <c r="N268" s="17"/>
     </row>
-    <row r="269" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="269" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B269" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="19">
@@ -7333,10 +7008,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B270" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="19">
@@ -7353,10 +7028,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="271" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B271" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" s="19">
@@ -7373,10 +7048,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B272" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" s="19">
@@ -7396,10 +7071,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B273" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="19">
@@ -7419,11 +7094,11 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="19">
@@ -7435,11 +7110,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7"/>
       <c r="B275" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C275" s="12"/>
       <c r="D275" s="22">
@@ -7456,11 +7131,11 @@
       <c r="M275" s="17"/>
       <c r="N275" s="17"/>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="19">
@@ -7478,11 +7153,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="19">
@@ -7499,10 +7174,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B278" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="19">
@@ -7519,10 +7194,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B279" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" s="19">
@@ -7542,10 +7217,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B280" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="19">
@@ -7565,10 +7240,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B281" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="19">
@@ -7580,10 +7255,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B282" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C282" s="12"/>
       <c r="D282" s="22">
@@ -7600,10 +7275,10 @@
       <c r="M282" s="17"/>
       <c r="N282" s="17"/>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B283" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="19">
@@ -7621,10 +7296,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B284" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="19">
@@ -7641,10 +7316,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B285" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="19">
@@ -7661,10 +7336,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B286" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="19">
@@ -7684,10 +7359,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B287" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="19">
@@ -7707,10 +7382,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B288" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="19">
@@ -7722,10 +7397,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B289" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C289" s="12"/>
       <c r="D289" s="22">
@@ -7742,10 +7417,10 @@
       <c r="M289" s="17"/>
       <c r="N289" s="17"/>
     </row>
-    <row r="290" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="290" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B290" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="19">
@@ -7763,10 +7438,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="291" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B291" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="19">
@@ -7783,10 +7458,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="292" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B292" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="19">
@@ -7803,10 +7478,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="293" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B293" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="19">
@@ -7826,10 +7501,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="294" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="294" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B294" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" s="19">
@@ -7849,10 +7524,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="295" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="295" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B295" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="19">
@@ -7864,10 +7539,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B296" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C296" s="12"/>
       <c r="D296" s="22">
@@ -7884,10 +7559,10 @@
       <c r="M296" s="17"/>
       <c r="N296" s="17"/>
     </row>
-    <row r="297" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="297" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B297" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="19">
@@ -7905,10 +7580,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="298" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B298" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="19">
@@ -7925,10 +7600,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="299" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B299" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="19">
@@ -7945,10 +7620,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="300" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B300" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="19">
@@ -7968,10 +7643,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="301" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="301" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B301" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="19">
@@ -7991,10 +7666,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="302" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="302" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B302" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="19">
@@ -8006,10 +7681,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B303" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C303" s="12"/>
       <c r="D303" s="22">
@@ -8026,10 +7701,10 @@
       <c r="M303" s="17"/>
       <c r="N303" s="17"/>
     </row>
-    <row r="304" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="304" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B304" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="19">
@@ -8047,10 +7722,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B305" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="19">
@@ -8067,11 +7742,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="19">
@@ -8088,11 +7763,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="19">
@@ -8112,11 +7787,11 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="19">
@@ -8136,11 +7811,11 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="19">
@@ -8152,10 +7827,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B310" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C310" s="12"/>
       <c r="D310" s="22">
@@ -8172,10 +7847,10 @@
       <c r="M310" s="17"/>
       <c r="N310" s="17"/>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B311" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="19">
@@ -8195,10 +7870,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B312" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="19">
@@ -8218,10 +7893,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B313" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="19">
@@ -8241,10 +7916,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B314" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="19">
@@ -8264,10 +7939,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B315" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="20">
@@ -8284,10 +7959,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B316" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="20">
@@ -8296,10 +7971,10 @@
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
     </row>
-    <row r="317" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B317" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C317" s="12"/>
       <c r="D317" s="23">
@@ -8316,10 +7991,10 @@
       <c r="M317" s="17"/>
       <c r="N317" s="17"/>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B318" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="19">
@@ -8339,10 +8014,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B319" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="19">
@@ -8362,10 +8037,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B320" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="19">
@@ -8385,10 +8060,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B321" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="19">
@@ -8408,10 +8083,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B322" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="19">
@@ -8431,10 +8106,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B323" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="19">
@@ -8446,10 +8121,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B324" s="2">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C324" s="12"/>
       <c r="D324" s="22">
@@ -8469,10 +8144,10 @@
       <c r="M324" s="17"/>
       <c r="N324" s="17"/>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B325" s="2">
         <f t="shared" ref="B325:B368" si="90">B324+G324</f>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="19">
@@ -8492,10 +8167,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B326" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="19">
@@ -8515,10 +8190,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B327" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="19">
@@ -8538,10 +8213,10 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B328" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="19">
@@ -8558,10 +8233,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B329" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="19">
@@ -8584,10 +8259,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B330" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="19">
@@ -8597,10 +8272,10 @@
       <c r="F330" s="5"/>
       <c r="H330" s="14"/>
     </row>
-    <row r="331" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B331" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C331" s="12"/>
       <c r="D331" s="22">
@@ -8617,10 +8292,10 @@
       <c r="M331" s="17"/>
       <c r="N331" s="17"/>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B332" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="19">
@@ -8638,10 +8313,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B333" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="19">
@@ -8659,10 +8334,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B334" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" s="19">
@@ -8680,10 +8355,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B335" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="19">
@@ -8703,11 +8378,11 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" s="19">
@@ -8727,11 +8402,11 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="19">
@@ -8743,11 +8418,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="12"/>
       <c r="B338" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C338" s="12"/>
       <c r="D338" s="22">
@@ -8767,11 +8442,11 @@
       <c r="M338" s="17"/>
       <c r="N338" s="17"/>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="19">
@@ -8792,10 +8467,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B340" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="19">
@@ -8815,10 +8490,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B341" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="19">
@@ -8838,10 +8513,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B342" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="19">
@@ -8861,10 +8536,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B343" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="19">
@@ -8884,10 +8559,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B344" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="19">
@@ -8899,10 +8574,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B345" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C345" s="12"/>
       <c r="D345" s="22">
@@ -8919,10 +8594,10 @@
       <c r="M345" s="17"/>
       <c r="N345" s="17"/>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B346" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="19">
@@ -8940,10 +8615,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B347" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="19">
@@ -8960,10 +8635,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B348" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="19">
@@ -8980,10 +8655,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B349" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="19">
@@ -9000,10 +8675,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B350" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="19">
@@ -9020,10 +8695,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B351" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="19">
@@ -9032,10 +8707,10 @@
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
     </row>
-    <row r="352" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B352" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C352" s="12"/>
       <c r="D352" s="22">
@@ -9052,10 +8727,10 @@
       <c r="M352" s="17"/>
       <c r="N352" s="17"/>
     </row>
-    <row r="353" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="353" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B353" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="19">
@@ -9073,10 +8748,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="354" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B354" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" s="19">
@@ -9093,10 +8768,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="355" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B355" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" s="19">
@@ -9113,10 +8788,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="356" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B356" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="19">
@@ -9133,10 +8808,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="357" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B357" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="19">
@@ -9153,10 +8828,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="358" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B358" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="19">
@@ -9165,10 +8840,10 @@
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
     </row>
-    <row r="359" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="359" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B359" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="19">
@@ -9181,10 +8856,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="360" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B360" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="19">
@@ -9202,10 +8877,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="361" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B361" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="19">
@@ -9222,10 +8897,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="362" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B362" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="19">
@@ -9242,10 +8917,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="363" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B363" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="19">
@@ -9262,10 +8937,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="364" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B364" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="19">
@@ -9282,10 +8957,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="365" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B365" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="19">
@@ -9294,10 +8969,10 @@
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
     </row>
-    <row r="366" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="366" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B366" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="19">
@@ -9310,10 +8985,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="367" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B367" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D367" s="19">
         <v>43724</v>
@@ -9329,16 +9004,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="368" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B368" s="2">
         <f t="shared" si="90"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D368" s="19">
         <v>43725</v>
       </c>
     </row>
-    <row r="370" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="370" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H370" s="1">
         <f>SUM(H3:H368)</f>
         <v>810</v>
@@ -9346,140 +9021,140 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D368">
-    <cfRule type="cellIs" dxfId="67" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9 I10:I366 I1:I8">
-    <cfRule type="cellIs" dxfId="66" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="64" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="62" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="60" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="58" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="56" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" dxfId="54" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58">
-    <cfRule type="cellIs" dxfId="52" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65">
-    <cfRule type="cellIs" dxfId="50" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="48" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79">
-    <cfRule type="cellIs" dxfId="46" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86">
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93 J100 J107 J121 J114 J128 J135 J142 J149 J156 J163 J170 J177 J184 J191 J198 J205 J212 J219 J226 J233 J240 J247 J254 J261 J268 J275 J289 J282 J296 J303 J310 J324 J317 J331 J338 J345 J352 J359 J366">
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A123 A274:A277 A153:A156 A183:A186 A214:A217 A245:A248 A306:A309 A336:A339 A33:A48 A66:A95 A50:A64 C1:C366 A1:A31">
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I367">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="top10" dxfId="34" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="0" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
